--- a/Modulo4/out/info_partidos/data_Arkansas.xlsx
+++ b/Modulo4/out/info_partidos/data_Arkansas.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/gonzalo_delgado_r_uni_pe/Documents/Desktop/PythonFundamentos/Modulo4/out/info_partidos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DA8EFE79F42A11DD32160BE3833D0EB67BCFB0D3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6AB918CF-3792-4B8D-BBFF-E5734873FADE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkansas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -310,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,11 +380,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +466,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,6 +518,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,14 +711,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -738,7 +794,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -761,7 +817,7 @@
         <v>724</v>
       </c>
       <c r="H3">
-        <v>0.833</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="I3" t="s">
         <v>96</v>
@@ -773,7 +829,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -796,7 +852,7 @@
         <v>146</v>
       </c>
       <c r="H4">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I4" t="s">
         <v>96</v>
@@ -808,7 +864,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -831,7 +887,7 @@
         <v>1073</v>
       </c>
       <c r="H5">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I5" t="s">
         <v>96</v>
@@ -843,7 +899,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -878,7 +934,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -901,7 +957,7 @@
         <v>789</v>
       </c>
       <c r="H7">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
@@ -913,7 +969,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -936,7 +992,7 @@
         <v>593</v>
       </c>
       <c r="H8">
-        <v>0.213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I8" t="s">
         <v>96</v>
@@ -948,7 +1004,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -971,7 +1027,7 @@
         <v>980</v>
       </c>
       <c r="H9">
-        <v>0.338</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I9" t="s">
         <v>96</v>
@@ -980,10 +1036,10 @@
         <v>5003</v>
       </c>
       <c r="K9">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1062,7 @@
         <v>1375</v>
       </c>
       <c r="H10">
-        <v>0.474</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I10" t="s">
         <v>96</v>
@@ -1015,10 +1071,10 @@
         <v>5003</v>
       </c>
       <c r="K10">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1097,7 @@
         <v>104</v>
       </c>
       <c r="H11">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="I11" t="s">
         <v>96</v>
@@ -1050,10 +1106,10 @@
         <v>5003</v>
       </c>
       <c r="K11">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1132,7 @@
         <v>586</v>
       </c>
       <c r="H12">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="I12" t="s">
         <v>96</v>
@@ -1085,10 +1141,10 @@
         <v>5003</v>
       </c>
       <c r="K12">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1167,7 @@
         <v>45</v>
       </c>
       <c r="H13">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I13" t="s">
         <v>96</v>
@@ -1120,10 +1176,10 @@
         <v>5003</v>
       </c>
       <c r="K13">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1202,7 @@
         <v>281</v>
       </c>
       <c r="H14">
-        <v>0.194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="I14" t="s">
         <v>96</v>
@@ -1155,10 +1211,10 @@
         <v>5003</v>
       </c>
       <c r="K14">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1181,7 +1237,7 @@
         <v>403</v>
       </c>
       <c r="H15">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
@@ -1190,10 +1246,10 @@
         <v>5003</v>
       </c>
       <c r="K15">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1272,7 @@
         <v>807</v>
       </c>
       <c r="H16">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I16" t="s">
         <v>96</v>
@@ -1225,10 +1281,10 @@
         <v>5005</v>
       </c>
       <c r="K16">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1260,10 +1316,10 @@
         <v>5005</v>
       </c>
       <c r="K17">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1342,7 @@
         <v>452</v>
       </c>
       <c r="H18">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I18" t="s">
         <v>96</v>
@@ -1295,10 +1351,10 @@
         <v>5005</v>
       </c>
       <c r="K18">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1330,10 +1386,10 @@
         <v>5005</v>
       </c>
       <c r="K19">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1412,7 @@
         <v>376</v>
       </c>
       <c r="H20">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I20" t="s">
         <v>96</v>
@@ -1365,10 +1421,10 @@
         <v>5005</v>
       </c>
       <c r="K20">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1400,10 +1456,10 @@
         <v>5005</v>
       </c>
       <c r="K21">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1482,7 @@
         <v>2480</v>
       </c>
       <c r="H22">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
@@ -1435,10 +1491,10 @@
         <v>5005</v>
       </c>
       <c r="K22">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1517,7 @@
         <v>4696</v>
       </c>
       <c r="H23">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="I23" t="s">
         <v>96</v>
@@ -1473,7 +1529,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1552,7 @@
         <v>5650</v>
       </c>
       <c r="H24">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="I24" t="s">
         <v>96</v>
@@ -1508,7 +1564,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1599,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1622,7 @@
         <v>11828</v>
       </c>
       <c r="H26">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="I26" t="s">
         <v>96</v>
@@ -1578,7 +1634,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1657,7 @@
         <v>2272</v>
       </c>
       <c r="H27">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="I27" t="s">
         <v>96</v>
@@ -1613,7 +1669,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1692,7 @@
         <v>12863</v>
       </c>
       <c r="H28">
-        <v>0.303</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="I28" t="s">
         <v>96</v>
@@ -1648,7 +1704,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1727,7 @@
         <v>11909</v>
       </c>
       <c r="H29">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I29" t="s">
         <v>96</v>
@@ -1683,7 +1739,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1762,7 @@
         <v>469</v>
       </c>
       <c r="H30">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I30" t="s">
         <v>96</v>
@@ -1718,7 +1774,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1797,7 @@
         <v>721</v>
       </c>
       <c r="H31">
-        <v>0.5920000000000001</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="I31" t="s">
         <v>96</v>
@@ -1753,7 +1809,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1832,7 @@
         <v>478</v>
       </c>
       <c r="H32">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I32" t="s">
         <v>96</v>
@@ -1788,7 +1844,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1811,7 +1867,7 @@
         <v>2577</v>
       </c>
       <c r="H33">
-        <v>0.407</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="I33" t="s">
         <v>96</v>
@@ -1823,7 +1879,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1902,7 @@
         <v>267</v>
       </c>
       <c r="H34">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I34" t="s">
         <v>96</v>
@@ -1858,7 +1914,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +1949,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1984,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +2007,7 @@
         <v>106</v>
       </c>
       <c r="H37">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="I37" t="s">
         <v>96</v>
@@ -1963,7 +2019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +2042,7 @@
         <v>593</v>
       </c>
       <c r="H38">
-        <v>0.8320000000000001</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="I38" t="s">
         <v>96</v>
@@ -1998,7 +2054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2021,7 +2077,7 @@
         <v>94</v>
       </c>
       <c r="H39">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="I39" t="s">
         <v>96</v>
@@ -2033,7 +2089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2147,7 @@
         <v>45</v>
       </c>
       <c r="H41">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I41" t="s">
         <v>96</v>
@@ -2103,7 +2159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2182,7 @@
         <v>361</v>
       </c>
       <c r="H42">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I42" t="s">
         <v>96</v>
@@ -2138,7 +2194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2217,7 @@
         <v>393</v>
       </c>
       <c r="H43">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I43" t="s">
         <v>96</v>
@@ -2173,7 +2229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2208,7 +2264,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +2299,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="H46">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I46" t="s">
         <v>96</v>
@@ -2278,7 +2334,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2301,7 +2357,7 @@
         <v>172</v>
       </c>
       <c r="H47">
-        <v>0.416</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I47" t="s">
         <v>96</v>
@@ -2313,7 +2369,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +2404,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2439,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2462,7 @@
         <v>142</v>
       </c>
       <c r="H50">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I50" t="s">
         <v>96</v>
@@ -2418,7 +2474,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2450,10 +2506,10 @@
         <v>5015</v>
       </c>
       <c r="K51">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2485,10 +2541,10 @@
         <v>5015</v>
       </c>
       <c r="K52">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2520,10 +2576,10 @@
         <v>5015</v>
       </c>
       <c r="K53">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2555,10 +2611,10 @@
         <v>5015</v>
       </c>
       <c r="K54">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2590,10 +2646,10 @@
         <v>5015</v>
       </c>
       <c r="K55">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2625,10 +2681,10 @@
         <v>5015</v>
       </c>
       <c r="K56">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2660,10 +2716,10 @@
         <v>5015</v>
       </c>
       <c r="K57">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2686,7 +2742,7 @@
         <v>247</v>
       </c>
       <c r="H58">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="I58" t="s">
         <v>96</v>
@@ -2698,7 +2754,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2721,7 +2777,7 @@
         <v>1370</v>
       </c>
       <c r="H59">
-        <v>0.8109999999999999</v>
+        <v>0.81099999999999994</v>
       </c>
       <c r="I59" t="s">
         <v>96</v>
@@ -2733,7 +2789,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2812,7 @@
         <v>35</v>
       </c>
       <c r="H60">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I60" t="s">
         <v>96</v>
@@ -2768,7 +2824,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2847,7 @@
         <v>416</v>
       </c>
       <c r="H61">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I61" t="s">
         <v>96</v>
@@ -2803,7 +2859,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="H62">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I62" t="s">
         <v>96</v>
@@ -2838,7 +2894,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2917,7 @@
         <v>162</v>
       </c>
       <c r="H63">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I63" t="s">
         <v>96</v>
@@ -2873,7 +2929,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2908,7 +2964,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2987,7 @@
         <v>494</v>
       </c>
       <c r="H65">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I65" t="s">
         <v>96</v>
@@ -2943,7 +2999,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3034,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +3057,7 @@
         <v>144</v>
       </c>
       <c r="H67">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I67" t="s">
         <v>96</v>
@@ -3013,7 +3069,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3092,7 @@
         <v>694</v>
       </c>
       <c r="H68">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I68" t="s">
         <v>96</v>
@@ -3048,7 +3104,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3127,7 @@
         <v>102</v>
       </c>
       <c r="H69">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I69" t="s">
         <v>96</v>
@@ -3083,7 +3139,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3162,7 @@
         <v>750</v>
       </c>
       <c r="H70">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I70" t="s">
         <v>96</v>
@@ -3118,7 +3174,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3197,7 @@
         <v>907</v>
       </c>
       <c r="H71">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I71" t="s">
         <v>96</v>
@@ -3153,7 +3209,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3176,7 +3232,7 @@
         <v>656</v>
       </c>
       <c r="H72">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="I72" t="s">
         <v>96</v>
@@ -3188,7 +3244,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3223,7 +3279,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3302,7 @@
         <v>48</v>
       </c>
       <c r="H74">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I74" t="s">
         <v>96</v>
@@ -3258,7 +3314,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3281,7 +3337,7 @@
         <v>339</v>
       </c>
       <c r="H75">
-        <v>0.407</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="I75" t="s">
         <v>96</v>
@@ -3293,7 +3349,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3316,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I76" t="s">
         <v>96</v>
@@ -3328,7 +3384,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3407,7 @@
         <v>136</v>
       </c>
       <c r="H77">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I77" t="s">
         <v>96</v>
@@ -3363,7 +3419,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3442,7 @@
         <v>276</v>
       </c>
       <c r="H78">
-        <v>0.331</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="I78" t="s">
         <v>96</v>
@@ -3398,7 +3454,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3477,7 @@
         <v>316</v>
       </c>
       <c r="H79">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I79" t="s">
         <v>96</v>
@@ -3433,7 +3489,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3512,7 @@
         <v>758</v>
       </c>
       <c r="H80">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="I80" t="s">
         <v>96</v>
@@ -3468,7 +3524,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3547,7 @@
         <v>339</v>
       </c>
       <c r="H81">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I81" t="s">
         <v>96</v>
@@ -3503,7 +3559,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3526,7 +3582,7 @@
         <v>2530</v>
       </c>
       <c r="H82">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I82" t="s">
         <v>96</v>
@@ -3538,7 +3594,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3561,7 +3617,7 @@
         <v>210</v>
       </c>
       <c r="H83">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I83" t="s">
         <v>96</v>
@@ -3573,7 +3629,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +3652,7 @@
         <v>1392</v>
       </c>
       <c r="H84">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="I84" t="s">
         <v>96</v>
@@ -3608,7 +3664,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3631,7 +3687,7 @@
         <v>2227</v>
       </c>
       <c r="H85">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="I85" t="s">
         <v>96</v>
@@ -3643,7 +3699,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -3675,10 +3731,10 @@
         <v>5025</v>
       </c>
       <c r="K86">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3701,7 +3757,7 @@
         <v>382</v>
       </c>
       <c r="H87">
-        <v>0.6879999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="I87" t="s">
         <v>96</v>
@@ -3710,10 +3766,10 @@
         <v>5025</v>
       </c>
       <c r="K87">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3792,7 @@
         <v>62</v>
       </c>
       <c r="H88">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I88" t="s">
         <v>96</v>
@@ -3745,10 +3801,10 @@
         <v>5025</v>
       </c>
       <c r="K88">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3771,7 +3827,7 @@
         <v>503</v>
       </c>
       <c r="H89">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I89" t="s">
         <v>96</v>
@@ -3780,10 +3836,10 @@
         <v>5025</v>
       </c>
       <c r="K89">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -3806,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="H90">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I90" t="s">
         <v>96</v>
@@ -3815,10 +3871,10 @@
         <v>5025</v>
       </c>
       <c r="K90">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -3841,7 +3897,7 @@
         <v>313</v>
       </c>
       <c r="H91">
-        <v>0.209</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="I91" t="s">
         <v>96</v>
@@ -3850,10 +3906,10 @@
         <v>5025</v>
       </c>
       <c r="K91">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -3876,7 +3932,7 @@
         <v>550</v>
       </c>
       <c r="H92">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I92" t="s">
         <v>96</v>
@@ -3885,10 +3941,10 @@
         <v>5025</v>
       </c>
       <c r="K92">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3923,7 +3979,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3946,7 +4002,7 @@
         <v>1008</v>
       </c>
       <c r="H94">
-        <v>0.738</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I94" t="s">
         <v>96</v>
@@ -3958,7 +4014,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3981,7 +4037,7 @@
         <v>208</v>
       </c>
       <c r="H95">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I95" t="s">
         <v>96</v>
@@ -3993,7 +4049,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4072,7 @@
         <v>1149</v>
       </c>
       <c r="H96">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I96" t="s">
         <v>96</v>
@@ -4028,7 +4084,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4107,7 @@
         <v>103</v>
       </c>
       <c r="H97">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I97" t="s">
         <v>96</v>
@@ -4063,7 +4119,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4086,7 +4142,7 @@
         <v>634</v>
       </c>
       <c r="H98">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="I98" t="s">
         <v>96</v>
@@ -4098,7 +4154,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4189,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4212,7 @@
         <v>840</v>
       </c>
       <c r="H100">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I100" t="s">
         <v>96</v>
@@ -4168,7 +4224,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4203,7 +4259,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4226,7 +4282,7 @@
         <v>101</v>
       </c>
       <c r="H102">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I102" t="s">
         <v>96</v>
@@ -4238,7 +4294,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4261,7 +4317,7 @@
         <v>805</v>
       </c>
       <c r="H103">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I103" t="s">
         <v>96</v>
@@ -4273,7 +4329,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4296,7 +4352,7 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I104" t="s">
         <v>96</v>
@@ -4308,7 +4364,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4343,7 +4399,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4366,7 +4422,7 @@
         <v>741</v>
       </c>
       <c r="H106">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I106" t="s">
         <v>96</v>
@@ -4378,7 +4434,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4457,7 @@
         <v>1862</v>
       </c>
       <c r="H107">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I107" t="s">
         <v>96</v>
@@ -4413,7 +4469,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4448,7 +4504,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4527,7 @@
         <v>851</v>
       </c>
       <c r="H109">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="I109" t="s">
         <v>96</v>
@@ -4483,7 +4539,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4506,7 +4562,7 @@
         <v>3429</v>
       </c>
       <c r="H110">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="I110" t="s">
         <v>96</v>
@@ -4518,7 +4574,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4541,7 +4597,7 @@
         <v>477</v>
       </c>
       <c r="H111">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I111" t="s">
         <v>96</v>
@@ -4553,7 +4609,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4588,7 +4644,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -4611,7 +4667,7 @@
         <v>4108</v>
       </c>
       <c r="H113">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I113" t="s">
         <v>96</v>
@@ -4623,7 +4679,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4702,7 @@
         <v>874</v>
       </c>
       <c r="H114">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I114" t="s">
         <v>96</v>
@@ -4658,7 +4714,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4693,7 +4749,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4772,7 @@
         <v>591</v>
       </c>
       <c r="H116">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I116" t="s">
         <v>96</v>
@@ -4728,7 +4784,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +4819,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4786,7 +4842,7 @@
         <v>249</v>
       </c>
       <c r="H118">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I118" t="s">
         <v>96</v>
@@ -4798,7 +4854,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -4821,7 +4877,7 @@
         <v>2251</v>
       </c>
       <c r="H119">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="I119" t="s">
         <v>96</v>
@@ -4833,7 +4889,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4868,7 +4924,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4947,7 @@
         <v>722</v>
       </c>
       <c r="H121">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I121" t="s">
         <v>96</v>
@@ -4903,7 +4959,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -4926,7 +4982,7 @@
         <v>3379</v>
       </c>
       <c r="H122">
-        <v>0.764</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I122" t="s">
         <v>96</v>
@@ -4938,7 +4994,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -4961,7 +5017,7 @@
         <v>165</v>
       </c>
       <c r="H123">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="I123" t="s">
         <v>96</v>
@@ -4973,7 +5029,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +5052,7 @@
         <v>1359</v>
       </c>
       <c r="H124">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I124" t="s">
         <v>96</v>
@@ -5008,7 +5064,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -5043,7 +5099,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +5122,7 @@
         <v>543</v>
       </c>
       <c r="H126">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I126" t="s">
         <v>96</v>
@@ -5078,7 +5134,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5157,7 @@
         <v>792</v>
       </c>
       <c r="H127">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I127" t="s">
         <v>96</v>
@@ -5113,7 +5169,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5148,7 +5204,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5227,7 @@
         <v>780</v>
       </c>
       <c r="H129">
-        <v>0.742</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I129" t="s">
         <v>96</v>
@@ -5183,7 +5239,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5262,7 @@
         <v>139</v>
       </c>
       <c r="H130">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I130" t="s">
         <v>96</v>
@@ -5218,7 +5274,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +5297,7 @@
         <v>972</v>
       </c>
       <c r="H131">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I131" t="s">
         <v>96</v>
@@ -5253,7 +5309,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -5276,7 +5332,7 @@
         <v>45</v>
       </c>
       <c r="H132">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I132" t="s">
         <v>96</v>
@@ -5288,7 +5344,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -5311,7 +5367,7 @@
         <v>395</v>
       </c>
       <c r="H133">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I133" t="s">
         <v>96</v>
@@ -5323,7 +5379,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -5346,7 +5402,7 @@
         <v>808</v>
       </c>
       <c r="H134">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I134" t="s">
         <v>96</v>
@@ -5358,7 +5414,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5437,7 @@
         <v>361</v>
       </c>
       <c r="H135">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I135" t="s">
         <v>96</v>
@@ -5393,7 +5449,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -5416,7 +5472,7 @@
         <v>693</v>
       </c>
       <c r="H136">
-        <v>0.5679999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="I136" t="s">
         <v>96</v>
@@ -5428,7 +5484,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="H137">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I137" t="s">
         <v>96</v>
@@ -5463,7 +5519,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5542,7 @@
         <v>163</v>
       </c>
       <c r="H138">
-        <v>0.3720000000000001</v>
+        <v>0.37200000000000011</v>
       </c>
       <c r="I138" t="s">
         <v>96</v>
@@ -5498,7 +5554,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -5521,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="I139" t="s">
         <v>96</v>
@@ -5533,7 +5589,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -5556,7 +5612,7 @@
         <v>90</v>
       </c>
       <c r="H140">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I140" t="s">
         <v>96</v>
@@ -5568,7 +5624,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -5591,7 +5647,7 @@
         <v>148</v>
       </c>
       <c r="H141">
-        <v>0.338</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I141" t="s">
         <v>96</v>
@@ -5603,7 +5659,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -5638,7 +5694,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -5661,7 +5717,7 @@
         <v>1342</v>
       </c>
       <c r="H143">
-        <v>0.6859999999999999</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="I143" t="s">
         <v>96</v>
@@ -5673,7 +5729,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -5696,7 +5752,7 @@
         <v>16</v>
       </c>
       <c r="H144">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I144" t="s">
         <v>96</v>
@@ -5708,7 +5764,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -5731,7 +5787,7 @@
         <v>234</v>
       </c>
       <c r="H145">
-        <v>0.531</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I145" t="s">
         <v>96</v>
@@ -5743,7 +5799,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5766,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="H146">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I146" t="s">
         <v>96</v>
@@ -5778,7 +5834,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -5813,7 +5869,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5848,7 +5904,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5871,7 +5927,7 @@
         <v>475</v>
       </c>
       <c r="H149">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="I149" t="s">
         <v>96</v>
@@ -5883,7 +5939,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5962,7 @@
         <v>1250</v>
       </c>
       <c r="H150">
-        <v>0.6779999999999999</v>
+        <v>0.67799999999999994</v>
       </c>
       <c r="I150" t="s">
         <v>96</v>
@@ -5918,7 +5974,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -5941,7 +5997,7 @@
         <v>176</v>
       </c>
       <c r="H151">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I151" t="s">
         <v>96</v>
@@ -5953,7 +6009,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -5976,7 +6032,7 @@
         <v>795</v>
       </c>
       <c r="H152">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="I152" t="s">
         <v>96</v>
@@ -5988,7 +6044,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +6067,7 @@
         <v>47</v>
       </c>
       <c r="H153">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I153" t="s">
         <v>96</v>
@@ -6023,7 +6079,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -6046,7 +6102,7 @@
         <v>557</v>
       </c>
       <c r="H154">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I154" t="s">
         <v>96</v>
@@ -6058,7 +6114,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -6093,7 +6149,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6172,7 @@
         <v>2774</v>
       </c>
       <c r="H156">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="I156" t="s">
         <v>96</v>
@@ -6128,7 +6184,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6207,7 @@
         <v>4077</v>
       </c>
       <c r="H157">
-        <v>0.586</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="I157" t="s">
         <v>96</v>
@@ -6163,7 +6219,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -6186,7 +6242,7 @@
         <v>950</v>
       </c>
       <c r="H158">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I158" t="s">
         <v>96</v>
@@ -6198,7 +6254,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -6221,7 +6277,7 @@
         <v>5078</v>
       </c>
       <c r="H159">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="I159" t="s">
         <v>96</v>
@@ -6233,7 +6289,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -6256,7 +6312,7 @@
         <v>595</v>
       </c>
       <c r="H160">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I160" t="s">
         <v>96</v>
@@ -6268,7 +6324,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6347,7 @@
         <v>5426</v>
       </c>
       <c r="H161">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I161" t="s">
         <v>96</v>
@@ -6303,7 +6359,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -6326,7 +6382,7 @@
         <v>6228</v>
       </c>
       <c r="H162">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I162" t="s">
         <v>96</v>
@@ -6338,7 +6394,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6417,7 @@
         <v>294</v>
       </c>
       <c r="H163">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I163" t="s">
         <v>96</v>
@@ -6373,7 +6429,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -6396,7 +6452,7 @@
         <v>667</v>
       </c>
       <c r="H164">
-        <v>0.672</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="I164" t="s">
         <v>96</v>
@@ -6408,7 +6464,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -6431,7 +6487,7 @@
         <v>182</v>
       </c>
       <c r="H165">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I165" t="s">
         <v>96</v>
@@ -6443,7 +6499,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6522,7 @@
         <v>1229</v>
       </c>
       <c r="H166">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="I166" t="s">
         <v>96</v>
@@ -6478,7 +6534,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +6557,7 @@
         <v>95</v>
       </c>
       <c r="H167">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I167" t="s">
         <v>96</v>
@@ -6513,7 +6569,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -6536,7 +6592,7 @@
         <v>601</v>
       </c>
       <c r="H168">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I168" t="s">
         <v>96</v>
@@ -6548,7 +6604,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -6571,7 +6627,7 @@
         <v>1093</v>
       </c>
       <c r="H169">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="I169" t="s">
         <v>96</v>
@@ -6583,7 +6639,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -6615,10 +6671,10 @@
         <v>5049</v>
       </c>
       <c r="K170">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -6641,7 +6697,7 @@
         <v>701</v>
       </c>
       <c r="H171">
-        <v>0.5539999999999999</v>
+        <v>0.55399999999999994</v>
       </c>
       <c r="I171" t="s">
         <v>96</v>
@@ -6650,10 +6706,10 @@
         <v>5049</v>
       </c>
       <c r="K171">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -6685,10 +6741,10 @@
         <v>5049</v>
       </c>
       <c r="K172">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -6720,10 +6776,10 @@
         <v>5049</v>
       </c>
       <c r="K173">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -6746,7 +6802,7 @@
         <v>32</v>
       </c>
       <c r="H174">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I174" t="s">
         <v>96</v>
@@ -6755,10 +6811,10 @@
         <v>5049</v>
       </c>
       <c r="K174">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +6837,7 @@
         <v>181</v>
       </c>
       <c r="H175">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I175" t="s">
         <v>96</v>
@@ -6790,10 +6846,10 @@
         <v>5049</v>
       </c>
       <c r="K175">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -6816,7 +6872,7 @@
         <v>385</v>
       </c>
       <c r="H176">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I176" t="s">
         <v>96</v>
@@ -6825,10 +6881,10 @@
         <v>5049</v>
       </c>
       <c r="K176">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6907,7 @@
         <v>1779</v>
       </c>
       <c r="H177">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I177" t="s">
         <v>96</v>
@@ -6863,7 +6919,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -6886,7 +6942,7 @@
         <v>4057</v>
       </c>
       <c r="H178">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="I178" t="s">
         <v>96</v>
@@ -6898,7 +6954,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -6921,7 +6977,7 @@
         <v>968</v>
       </c>
       <c r="H179">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="I179" t="s">
         <v>96</v>
@@ -6933,7 +6989,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -6956,7 +7012,7 @@
         <v>5538</v>
       </c>
       <c r="H180">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I180" t="s">
         <v>96</v>
@@ -6968,7 +7024,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -6991,7 +7047,7 @@
         <v>673</v>
       </c>
       <c r="H181">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I181" t="s">
         <v>96</v>
@@ -7003,7 +7059,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -7026,7 +7082,7 @@
         <v>4050</v>
       </c>
       <c r="H182">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="I182" t="s">
         <v>96</v>
@@ -7038,7 +7094,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -7061,7 +7117,7 @@
         <v>4081</v>
       </c>
       <c r="H183">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I183" t="s">
         <v>96</v>
@@ -7073,7 +7129,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -7096,7 +7152,7 @@
         <v>300</v>
       </c>
       <c r="H184">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I184" t="s">
         <v>96</v>
@@ -7108,7 +7164,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -7131,7 +7187,7 @@
         <v>690</v>
       </c>
       <c r="H185">
-        <v>0.6629999999999999</v>
+        <v>0.66299999999999992</v>
       </c>
       <c r="I185" t="s">
         <v>96</v>
@@ -7143,7 +7199,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -7166,7 +7222,7 @@
         <v>125</v>
       </c>
       <c r="H186">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I186" t="s">
         <v>96</v>
@@ -7178,7 +7234,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -7213,7 +7269,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7292,7 @@
         <v>59</v>
       </c>
       <c r="H188">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I188" t="s">
         <v>96</v>
@@ -7248,7 +7304,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -7271,7 +7327,7 @@
         <v>652</v>
       </c>
       <c r="H189">
-        <v>0.201</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="I189" t="s">
         <v>96</v>
@@ -7283,7 +7339,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7362,7 @@
         <v>1329</v>
       </c>
       <c r="H190">
-        <v>0.411</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="I190" t="s">
         <v>96</v>
@@ -7318,7 +7374,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -7350,10 +7406,10 @@
         <v>5055</v>
       </c>
       <c r="K191">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -7376,7 +7432,7 @@
         <v>1236</v>
       </c>
       <c r="H192">
-        <v>0.655</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="I192" t="s">
         <v>96</v>
@@ -7385,10 +7441,10 @@
         <v>5055</v>
       </c>
       <c r="K192">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -7411,7 +7467,7 @@
         <v>376</v>
       </c>
       <c r="H193">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="I193" t="s">
         <v>96</v>
@@ -7420,10 +7476,10 @@
         <v>5055</v>
       </c>
       <c r="K193">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -7446,7 +7502,7 @@
         <v>2103</v>
       </c>
       <c r="H194">
-        <v>0.351</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I194" t="s">
         <v>96</v>
@@ -7455,10 +7511,10 @@
         <v>5055</v>
       </c>
       <c r="K194">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -7481,7 +7537,7 @@
         <v>206</v>
       </c>
       <c r="H195">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="I195" t="s">
         <v>96</v>
@@ -7490,10 +7546,10 @@
         <v>5055</v>
       </c>
       <c r="K195">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -7525,10 +7581,10 @@
         <v>5055</v>
       </c>
       <c r="K196">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7607,7 @@
         <v>1709</v>
       </c>
       <c r="H197">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I197" t="s">
         <v>96</v>
@@ -7560,10 +7616,10 @@
         <v>5055</v>
       </c>
       <c r="K197">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -7586,7 +7642,7 @@
         <v>164</v>
       </c>
       <c r="H198">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I198" t="s">
         <v>96</v>
@@ -7598,7 +7654,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7677,7 @@
         <v>786</v>
       </c>
       <c r="H199">
-        <v>0.795</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I199" t="s">
         <v>96</v>
@@ -7633,7 +7689,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -7656,7 +7712,7 @@
         <v>119</v>
       </c>
       <c r="H200">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I200" t="s">
         <v>96</v>
@@ -7668,7 +7724,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -7691,7 +7747,7 @@
         <v>821</v>
       </c>
       <c r="H201">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="I201" t="s">
         <v>96</v>
@@ -7703,7 +7759,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -7726,7 +7782,7 @@
         <v>91</v>
       </c>
       <c r="H202">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I202" t="s">
         <v>96</v>
@@ -7738,7 +7794,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -7761,7 +7817,7 @@
         <v>395</v>
       </c>
       <c r="H203">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I203" t="s">
         <v>96</v>
@@ -7773,7 +7829,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -7808,7 +7864,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -7831,7 +7887,7 @@
         <v>730</v>
       </c>
       <c r="H205">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I205" t="s">
         <v>96</v>
@@ -7843,7 +7899,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -7866,7 +7922,7 @@
         <v>1562</v>
       </c>
       <c r="H206">
-        <v>0.637</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="I206" t="s">
         <v>96</v>
@@ -7878,7 +7934,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -7901,7 +7957,7 @@
         <v>235</v>
       </c>
       <c r="H207">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I207" t="s">
         <v>96</v>
@@ -7913,7 +7969,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -7948,7 +8004,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +8027,7 @@
         <v>81</v>
       </c>
       <c r="H209">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I209" t="s">
         <v>96</v>
@@ -7983,7 +8039,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -8006,7 +8062,7 @@
         <v>891</v>
       </c>
       <c r="H210">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I210" t="s">
         <v>96</v>
@@ -8018,7 +8074,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -8041,7 +8097,7 @@
         <v>1381</v>
       </c>
       <c r="H211">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="I211" t="s">
         <v>96</v>
@@ -8053,7 +8109,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -8088,7 +8144,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -8111,7 +8167,7 @@
         <v>535</v>
       </c>
       <c r="H213">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="I213" t="s">
         <v>96</v>
@@ -8123,7 +8179,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -8146,7 +8202,7 @@
         <v>117</v>
       </c>
       <c r="H214">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="I214" t="s">
         <v>96</v>
@@ -8158,7 +8214,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8237,7 @@
         <v>559</v>
       </c>
       <c r="H215">
-        <v>0.345</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I215" t="s">
         <v>96</v>
@@ -8193,7 +8249,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -8216,7 +8272,7 @@
         <v>34</v>
       </c>
       <c r="H216">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I216" t="s">
         <v>96</v>
@@ -8228,7 +8284,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -8251,7 +8307,7 @@
         <v>322</v>
       </c>
       <c r="H217">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I217" t="s">
         <v>96</v>
@@ -8263,7 +8319,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -8286,7 +8342,7 @@
         <v>548</v>
       </c>
       <c r="H218">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="I218" t="s">
         <v>96</v>
@@ -8298,7 +8354,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -8333,7 +8389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -8356,7 +8412,7 @@
         <v>1059</v>
       </c>
       <c r="H220">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="I220" t="s">
         <v>96</v>
@@ -8368,7 +8424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -8391,7 +8447,7 @@
         <v>469</v>
       </c>
       <c r="H221">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I221" t="s">
         <v>96</v>
@@ -8403,7 +8459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -8426,7 +8482,7 @@
         <v>2077</v>
       </c>
       <c r="H222">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="I222" t="s">
         <v>96</v>
@@ -8438,7 +8494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -8461,7 +8517,7 @@
         <v>234</v>
       </c>
       <c r="H223">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I223" t="s">
         <v>96</v>
@@ -8473,7 +8529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -8508,7 +8564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -8531,7 +8587,7 @@
         <v>1644</v>
       </c>
       <c r="H225">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I225" t="s">
         <v>96</v>
@@ -8543,7 +8599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -8566,7 +8622,7 @@
         <v>239</v>
       </c>
       <c r="H226">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I226" t="s">
         <v>96</v>
@@ -8578,7 +8634,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -8601,7 +8657,7 @@
         <v>516</v>
       </c>
       <c r="H227">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="I227" t="s">
         <v>96</v>
@@ -8613,7 +8669,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -8636,7 +8692,7 @@
         <v>139</v>
       </c>
       <c r="H228">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I228" t="s">
         <v>96</v>
@@ -8648,7 +8704,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -8683,7 +8739,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -8706,7 +8762,7 @@
         <v>55</v>
       </c>
       <c r="H230">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I230" t="s">
         <v>96</v>
@@ -8718,7 +8774,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -8741,7 +8797,7 @@
         <v>349</v>
       </c>
       <c r="H231">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="I231" t="s">
         <v>96</v>
@@ -8753,7 +8809,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -8776,7 +8832,7 @@
         <v>628</v>
       </c>
       <c r="H232">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I232" t="s">
         <v>96</v>
@@ -8788,7 +8844,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -8811,7 +8867,7 @@
         <v>225</v>
       </c>
       <c r="H233">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="I233" t="s">
         <v>96</v>
@@ -8823,7 +8879,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -8858,7 +8914,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -8893,7 +8949,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -8928,7 +8984,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -8951,7 +9007,7 @@
         <v>31</v>
       </c>
       <c r="H237">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I237" t="s">
         <v>96</v>
@@ -8963,7 +9019,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +9042,7 @@
         <v>351</v>
       </c>
       <c r="H238">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="I238" t="s">
         <v>96</v>
@@ -8998,7 +9054,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -9021,7 +9077,7 @@
         <v>437</v>
       </c>
       <c r="H239">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I239" t="s">
         <v>96</v>
@@ -9033,7 +9089,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -9056,7 +9112,7 @@
         <v>2115</v>
       </c>
       <c r="H240">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="I240" t="s">
         <v>96</v>
@@ -9068,7 +9124,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -9091,7 +9147,7 @@
         <v>9936</v>
       </c>
       <c r="H241">
-        <v>0.787</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="I241" t="s">
         <v>96</v>
@@ -9103,7 +9159,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -9126,7 +9182,7 @@
         <v>180</v>
       </c>
       <c r="H242">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I242" t="s">
         <v>96</v>
@@ -9138,7 +9194,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -9161,7 +9217,7 @@
         <v>1490</v>
       </c>
       <c r="H243">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="I243" t="s">
         <v>96</v>
@@ -9173,7 +9229,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -9196,7 +9252,7 @@
         <v>41</v>
       </c>
       <c r="H244">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I244" t="s">
         <v>96</v>
@@ -9208,7 +9264,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -9243,7 +9299,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -9278,7 +9334,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -9301,7 +9357,7 @@
         <v>580</v>
       </c>
       <c r="H247">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I247" t="s">
         <v>96</v>
@@ -9313,7 +9369,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -9348,7 +9404,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -9371,7 +9427,7 @@
         <v>234</v>
       </c>
       <c r="H249">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="I249" t="s">
         <v>96</v>
@@ -9383,7 +9439,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -9406,7 +9462,7 @@
         <v>1338</v>
       </c>
       <c r="H250">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="I250" t="s">
         <v>96</v>
@@ -9418,7 +9474,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -9441,7 +9497,7 @@
         <v>98</v>
       </c>
       <c r="H251">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I251" t="s">
         <v>96</v>
@@ -9453,7 +9509,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -9488,7 +9544,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -9511,7 +9567,7 @@
         <v>1004</v>
       </c>
       <c r="H253">
-        <v>0.298</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="I253" t="s">
         <v>96</v>
@@ -9523,7 +9579,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -9558,7 +9614,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -9581,7 +9637,7 @@
         <v>443</v>
       </c>
       <c r="H255">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="I255" t="s">
         <v>96</v>
@@ -9593,7 +9649,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -9616,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="H256">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I256" t="s">
         <v>96</v>
@@ -9628,7 +9684,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -9663,7 +9719,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -9686,7 +9742,7 @@
         <v>11</v>
       </c>
       <c r="H258">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I258" t="s">
         <v>96</v>
@@ -9698,7 +9754,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +9777,7 @@
         <v>80</v>
       </c>
       <c r="H259">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="I259" t="s">
         <v>96</v>
@@ -9733,7 +9789,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -9768,7 +9824,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -9791,7 +9847,7 @@
         <v>726</v>
       </c>
       <c r="H261">
-        <v>0.386</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="I261" t="s">
         <v>96</v>
@@ -9803,7 +9859,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -9838,7 +9894,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -9861,7 +9917,7 @@
         <v>89</v>
       </c>
       <c r="H263">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="I263" t="s">
         <v>96</v>
@@ -9873,7 +9929,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -9896,7 +9952,7 @@
         <v>445</v>
       </c>
       <c r="H264">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="I264" t="s">
         <v>96</v>
@@ -9908,7 +9964,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -9931,7 +9987,7 @@
         <v>21</v>
       </c>
       <c r="H265">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I265" t="s">
         <v>96</v>
@@ -9943,7 +9999,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -9978,7 +10034,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -10001,7 +10057,7 @@
         <v>426</v>
       </c>
       <c r="H267">
-        <v>0.343</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="I267" t="s">
         <v>96</v>
@@ -10013,7 +10069,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10092,7 @@
         <v>84</v>
       </c>
       <c r="H268">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I268" t="s">
         <v>96</v>
@@ -10048,7 +10104,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -10071,7 +10127,7 @@
         <v>956</v>
       </c>
       <c r="H269">
-        <v>0.8959999999999999</v>
+        <v>0.89599999999999991</v>
       </c>
       <c r="I269" t="s">
         <v>96</v>
@@ -10083,7 +10139,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10162,7 @@
         <v>16</v>
       </c>
       <c r="H270">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I270" t="s">
         <v>96</v>
@@ -10118,7 +10174,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -10141,7 +10197,7 @@
         <v>349</v>
       </c>
       <c r="H271">
-        <v>0.527</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I271" t="s">
         <v>96</v>
@@ -10153,7 +10209,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -10176,7 +10232,7 @@
         <v>12</v>
       </c>
       <c r="H272">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I272" t="s">
         <v>96</v>
@@ -10188,7 +10244,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -10211,7 +10267,7 @@
         <v>120</v>
       </c>
       <c r="H273">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I273" t="s">
         <v>96</v>
@@ -10223,7 +10279,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -10246,7 +10302,7 @@
         <v>143</v>
       </c>
       <c r="H274">
-        <v>0.2160000000000001</v>
+        <v>0.21600000000000011</v>
       </c>
       <c r="I274" t="s">
         <v>96</v>
@@ -10258,7 +10314,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -10293,7 +10349,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -10316,7 +10372,7 @@
         <v>599</v>
       </c>
       <c r="H276">
-        <v>0.757</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="I276" t="s">
         <v>96</v>
@@ -10328,7 +10384,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -10351,7 +10407,7 @@
         <v>68</v>
       </c>
       <c r="H277">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I277" t="s">
         <v>96</v>
@@ -10363,7 +10419,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -10398,7 +10454,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -10421,7 +10477,7 @@
         <v>15</v>
       </c>
       <c r="H279">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I279" t="s">
         <v>96</v>
@@ -10433,7 +10489,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -10468,7 +10524,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -10503,7 +10559,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -10526,7 +10582,7 @@
         <v>441</v>
       </c>
       <c r="H282">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I282" t="s">
         <v>96</v>
@@ -10535,10 +10591,10 @@
         <v>5081</v>
       </c>
       <c r="K282">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -10561,7 +10617,7 @@
         <v>721</v>
       </c>
       <c r="H283">
-        <v>0.531</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="I283" t="s">
         <v>96</v>
@@ -10570,10 +10626,10 @@
         <v>5081</v>
       </c>
       <c r="K283">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -10596,7 +10652,7 @@
         <v>87</v>
       </c>
       <c r="H284">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I284" t="s">
         <v>96</v>
@@ -10605,10 +10661,10 @@
         <v>5081</v>
       </c>
       <c r="K284">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -10631,7 +10687,7 @@
         <v>521</v>
       </c>
       <c r="H285">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I285" t="s">
         <v>96</v>
@@ -10640,10 +10696,10 @@
         <v>5081</v>
       </c>
       <c r="K285">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -10666,7 +10722,7 @@
         <v>15</v>
       </c>
       <c r="H286">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I286" t="s">
         <v>96</v>
@@ -10675,10 +10731,10 @@
         <v>5081</v>
       </c>
       <c r="K286">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -10701,7 +10757,7 @@
         <v>187</v>
       </c>
       <c r="H287">
-        <v>0.139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="I287" t="s">
         <v>96</v>
@@ -10710,10 +10766,10 @@
         <v>5081</v>
       </c>
       <c r="K287">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -10736,7 +10792,7 @@
         <v>488</v>
       </c>
       <c r="H288">
-        <v>0.363</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="I288" t="s">
         <v>96</v>
@@ -10745,10 +10801,10 @@
         <v>5081</v>
       </c>
       <c r="K288">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -10771,7 +10827,7 @@
         <v>361</v>
       </c>
       <c r="H289">
-        <v>0.282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I289" t="s">
         <v>96</v>
@@ -10783,7 +10839,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -10806,7 +10862,7 @@
         <v>881</v>
       </c>
       <c r="H290">
-        <v>0.6890000000000001</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="I290" t="s">
         <v>96</v>
@@ -10818,7 +10874,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -10841,7 +10897,7 @@
         <v>205</v>
       </c>
       <c r="H291">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I291" t="s">
         <v>96</v>
@@ -10853,7 +10909,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -10876,7 +10932,7 @@
         <v>1208</v>
       </c>
       <c r="H292">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I292" t="s">
         <v>96</v>
@@ -10888,7 +10944,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -10911,7 +10967,7 @@
         <v>64</v>
       </c>
       <c r="H293">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I293" t="s">
         <v>96</v>
@@ -10923,7 +10979,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -10946,7 +11002,7 @@
         <v>687</v>
       </c>
       <c r="H294">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I294" t="s">
         <v>96</v>
@@ -10958,7 +11014,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -10981,7 +11037,7 @@
         <v>1077</v>
       </c>
       <c r="H295">
-        <v>0.326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I295" t="s">
         <v>96</v>
@@ -10993,7 +11049,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11016,7 +11072,7 @@
         <v>817</v>
       </c>
       <c r="H296">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I296" t="s">
         <v>96</v>
@@ -11028,7 +11084,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -11051,7 +11107,7 @@
         <v>1664</v>
       </c>
       <c r="H297">
-        <v>0.654</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="I297" t="s">
         <v>96</v>
@@ -11063,7 +11119,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -11098,7 +11154,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -11121,7 +11177,7 @@
         <v>3826</v>
       </c>
       <c r="H299">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I299" t="s">
         <v>96</v>
@@ -11133,7 +11189,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -11156,7 +11212,7 @@
         <v>301</v>
       </c>
       <c r="H300">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I300" t="s">
         <v>96</v>
@@ -11168,7 +11224,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -11203,7 +11259,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -11226,7 +11282,7 @@
         <v>4028</v>
       </c>
       <c r="H302">
-        <v>0.342</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="I302" t="s">
         <v>96</v>
@@ -11238,7 +11294,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -11261,7 +11317,7 @@
         <v>1078</v>
       </c>
       <c r="H303">
-        <v>0.414</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="I303" t="s">
         <v>96</v>
@@ -11273,7 +11329,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -11296,7 +11352,7 @@
         <v>1085</v>
       </c>
       <c r="H304">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="I304" t="s">
         <v>96</v>
@@ -11308,7 +11364,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -11343,7 +11399,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -11366,7 +11422,7 @@
         <v>671</v>
       </c>
       <c r="H306">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="I306" t="s">
         <v>96</v>
@@ -11378,7 +11434,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -11401,7 +11457,7 @@
         <v>29</v>
       </c>
       <c r="H307">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I307" t="s">
         <v>96</v>
@@ -11413,7 +11469,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -11436,7 +11492,7 @@
         <v>296</v>
       </c>
       <c r="H308">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="I308" t="s">
         <v>96</v>
@@ -11448,7 +11504,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -11471,7 +11527,7 @@
         <v>632</v>
       </c>
       <c r="H309">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I309" t="s">
         <v>96</v>
@@ -11483,7 +11539,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -11506,7 +11562,7 @@
         <v>314</v>
       </c>
       <c r="H310">
-        <v>0.415</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I310" t="s">
         <v>96</v>
@@ -11518,7 +11574,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -11541,7 +11597,7 @@
         <v>421</v>
       </c>
       <c r="H311">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="I311" t="s">
         <v>96</v>
@@ -11553,7 +11609,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -11576,7 +11632,7 @@
         <v>318</v>
       </c>
       <c r="H312">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I312" t="s">
         <v>96</v>
@@ -11588,7 +11644,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -11611,7 +11667,7 @@
         <v>1581</v>
       </c>
       <c r="H313">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="I313" t="s">
         <v>96</v>
@@ -11623,7 +11679,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -11658,7 +11714,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -11681,7 +11737,7 @@
         <v>548</v>
       </c>
       <c r="H315">
-        <v>0.149</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="I315" t="s">
         <v>96</v>
@@ -11693,7 +11749,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -11728,7 +11784,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -11751,7 +11807,7 @@
         <v>356</v>
       </c>
       <c r="H317">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I317" t="s">
         <v>96</v>
@@ -11763,7 +11819,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -11798,7 +11854,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -11821,7 +11877,7 @@
         <v>448</v>
       </c>
       <c r="H319">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I319" t="s">
         <v>96</v>
@@ -11833,7 +11889,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -11856,7 +11912,7 @@
         <v>2425</v>
       </c>
       <c r="H320">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="I320" t="s">
         <v>96</v>
@@ -11868,7 +11924,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -11903,7 +11959,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -11938,7 +11994,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -11961,7 +12017,7 @@
         <v>2741</v>
       </c>
       <c r="H323">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I323" t="s">
         <v>96</v>
@@ -11973,7 +12029,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -11996,7 +12052,7 @@
         <v>342</v>
       </c>
       <c r="H324">
-        <v>0.139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="I324" t="s">
         <v>96</v>
@@ -12008,7 +12064,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12031,7 +12087,7 @@
         <v>2017</v>
       </c>
       <c r="H325">
-        <v>0.8190000000000001</v>
+        <v>0.81900000000000006</v>
       </c>
       <c r="I325" t="s">
         <v>96</v>
@@ -12043,7 +12099,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -12078,7 +12134,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -12101,7 +12157,7 @@
         <v>1575</v>
       </c>
       <c r="H327">
-        <v>0.426</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="I327" t="s">
         <v>96</v>
@@ -12113,7 +12169,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -12136,7 +12192,7 @@
         <v>138</v>
       </c>
       <c r="H328">
-        <v>0.03700000000000001</v>
+        <v>3.7000000000000012E-2</v>
       </c>
       <c r="I328" t="s">
         <v>96</v>
@@ -12148,7 +12204,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12183,7 +12239,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -12218,7 +12274,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12241,7 +12297,7 @@
         <v>411</v>
       </c>
       <c r="H331">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I331" t="s">
         <v>96</v>
@@ -12253,7 +12309,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -12276,7 +12332,7 @@
         <v>843</v>
       </c>
       <c r="H332">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I332" t="s">
         <v>96</v>
@@ -12288,7 +12344,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12311,7 +12367,7 @@
         <v>14</v>
       </c>
       <c r="H333">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I333" t="s">
         <v>96</v>
@@ -12323,7 +12379,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -12346,7 +12402,7 @@
         <v>173</v>
       </c>
       <c r="H334">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="I334" t="s">
         <v>96</v>
@@ -12358,7 +12414,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -12381,7 +12437,7 @@
         <v>5</v>
       </c>
       <c r="H335">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I335" t="s">
         <v>96</v>
@@ -12393,7 +12449,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -12428,7 +12484,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12451,7 +12507,7 @@
         <v>138</v>
       </c>
       <c r="H337">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="I337" t="s">
         <v>96</v>
@@ -12463,7 +12519,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +12542,7 @@
         <v>142</v>
       </c>
       <c r="H338">
-        <v>0.296</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I338" t="s">
         <v>96</v>
@@ -12498,7 +12554,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -12533,7 +12589,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -12556,7 +12612,7 @@
         <v>100</v>
       </c>
       <c r="H340">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I340" t="s">
         <v>96</v>
@@ -12568,7 +12624,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -12591,7 +12647,7 @@
         <v>672</v>
       </c>
       <c r="H341">
-        <v>0.416</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="I341" t="s">
         <v>96</v>
@@ -12603,7 +12659,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -12626,7 +12682,7 @@
         <v>68</v>
       </c>
       <c r="H342">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I342" t="s">
         <v>96</v>
@@ -12638,7 +12694,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -12661,7 +12717,7 @@
         <v>287</v>
       </c>
       <c r="H343">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I343" t="s">
         <v>96</v>
@@ -12673,7 +12729,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -12696,7 +12752,7 @@
         <v>432</v>
       </c>
       <c r="H344">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="I344" t="s">
         <v>96</v>
@@ -12708,7 +12764,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12731,7 +12787,7 @@
         <v>306</v>
       </c>
       <c r="H345">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I345" t="s">
         <v>96</v>
@@ -12743,7 +12799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -12766,7 +12822,7 @@
         <v>647</v>
       </c>
       <c r="H346">
-        <v>0.5920000000000001</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="I346" t="s">
         <v>96</v>
@@ -12778,7 +12834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -12801,7 +12857,7 @@
         <v>45</v>
       </c>
       <c r="H347">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I347" t="s">
         <v>96</v>
@@ -12813,7 +12869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -12836,7 +12892,7 @@
         <v>232</v>
       </c>
       <c r="H348">
-        <v>0.338</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I348" t="s">
         <v>96</v>
@@ -12848,7 +12904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -12871,7 +12927,7 @@
         <v>11</v>
       </c>
       <c r="H349">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I349" t="s">
         <v>96</v>
@@ -12883,7 +12939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -12918,7 +12974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -12941,7 +12997,7 @@
         <v>246</v>
       </c>
       <c r="H351">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="I351" t="s">
         <v>96</v>
@@ -12953,7 +13009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -12976,7 +13032,7 @@
         <v>211</v>
       </c>
       <c r="H352">
-        <v>0.516</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="I352" t="s">
         <v>96</v>
@@ -12988,7 +13044,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -13011,7 +13067,7 @@
         <v>192</v>
       </c>
       <c r="H353">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I353" t="s">
         <v>96</v>
@@ -13023,7 +13079,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13046,7 +13102,7 @@
         <v>146</v>
       </c>
       <c r="H354">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I354" t="s">
         <v>96</v>
@@ -13058,7 +13114,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -13081,7 +13137,7 @@
         <v>1073</v>
       </c>
       <c r="H355">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I355" t="s">
         <v>96</v>
@@ -13093,7 +13149,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -13128,7 +13184,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13151,7 +13207,7 @@
         <v>789</v>
       </c>
       <c r="H357">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="I357" t="s">
         <v>96</v>
@@ -13163,7 +13219,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -13186,7 +13242,7 @@
         <v>593</v>
       </c>
       <c r="H358">
-        <v>0.213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I358" t="s">
         <v>96</v>
@@ -13198,7 +13254,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -13233,7 +13289,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -13256,7 +13312,7 @@
         <v>2095</v>
       </c>
       <c r="H360">
-        <v>0.7509999999999999</v>
+        <v>0.75099999999999989</v>
       </c>
       <c r="I360" t="s">
         <v>96</v>
@@ -13268,7 +13324,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13291,7 +13347,7 @@
         <v>156</v>
       </c>
       <c r="H361">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I361" t="s">
         <v>96</v>
@@ -13303,7 +13359,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -13338,7 +13394,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -13361,7 +13417,7 @@
         <v>61</v>
       </c>
       <c r="H363">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I363" t="s">
         <v>96</v>
@@ -13373,7 +13429,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -13396,7 +13452,7 @@
         <v>662</v>
       </c>
       <c r="H364">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="I364" t="s">
         <v>96</v>
@@ -13408,7 +13464,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -13431,7 +13487,7 @@
         <v>789</v>
       </c>
       <c r="H365">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I365" t="s">
         <v>96</v>
@@ -13443,7 +13499,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -13466,7 +13522,7 @@
         <v>428</v>
       </c>
       <c r="H366">
-        <v>0.349</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="I366" t="s">
         <v>96</v>
@@ -13478,7 +13534,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -13501,7 +13557,7 @@
         <v>648</v>
       </c>
       <c r="H367">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="I367" t="s">
         <v>96</v>
@@ -13513,7 +13569,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -13536,7 +13592,7 @@
         <v>69</v>
       </c>
       <c r="H368">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I368" t="s">
         <v>96</v>
@@ -13548,7 +13604,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -13571,7 +13627,7 @@
         <v>522</v>
       </c>
       <c r="H369">
-        <v>0.363</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="I369" t="s">
         <v>96</v>
@@ -13583,7 +13639,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -13606,7 +13662,7 @@
         <v>30</v>
       </c>
       <c r="H370">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I370" t="s">
         <v>96</v>
@@ -13618,7 +13674,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>11</v>
       </c>
@@ -13641,7 +13697,7 @@
         <v>238</v>
       </c>
       <c r="H371">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I371" t="s">
         <v>96</v>
@@ -13653,7 +13709,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -13688,7 +13744,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>11</v>
       </c>
@@ -13720,10 +13776,10 @@
         <v>5107</v>
       </c>
       <c r="K373">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>11</v>
       </c>
@@ -13755,10 +13811,10 @@
         <v>5107</v>
       </c>
       <c r="K374">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>11</v>
       </c>
@@ -13781,7 +13837,7 @@
         <v>28</v>
       </c>
       <c r="H375">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I375" t="s">
         <v>96</v>
@@ -13790,10 +13846,10 @@
         <v>5107</v>
       </c>
       <c r="K375">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -13816,7 +13872,7 @@
         <v>363</v>
       </c>
       <c r="H376">
-        <v>0.5660000000000001</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="I376" t="s">
         <v>96</v>
@@ -13825,10 +13881,10 @@
         <v>5107</v>
       </c>
       <c r="K376">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>11</v>
       </c>
@@ -13851,7 +13907,7 @@
         <v>11</v>
       </c>
       <c r="H377">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I377" t="s">
         <v>96</v>
@@ -13860,10 +13916,10 @@
         <v>5107</v>
       </c>
       <c r="K377">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>11</v>
       </c>
@@ -13886,7 +13942,7 @@
         <v>113</v>
       </c>
       <c r="H378">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I378" t="s">
         <v>96</v>
@@ -13895,10 +13951,10 @@
         <v>5107</v>
       </c>
       <c r="K378">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>11</v>
       </c>
@@ -13921,7 +13977,7 @@
         <v>110</v>
       </c>
       <c r="H379">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="I379" t="s">
         <v>96</v>
@@ -13930,10 +13986,10 @@
         <v>5107</v>
       </c>
       <c r="K379">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>11</v>
       </c>
@@ -13956,7 +14012,7 @@
         <v>171</v>
       </c>
       <c r="H380">
-        <v>0.299</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="I380" t="s">
         <v>96</v>
@@ -13968,7 +14024,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -13991,7 +14047,7 @@
         <v>367</v>
       </c>
       <c r="H381">
-        <v>0.642</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="I381" t="s">
         <v>96</v>
@@ -14003,7 +14059,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -14026,7 +14082,7 @@
         <v>108</v>
       </c>
       <c r="H382">
-        <v>0.07200000000000001</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="I382" t="s">
         <v>96</v>
@@ -14038,7 +14094,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -14061,7 +14117,7 @@
         <v>511</v>
       </c>
       <c r="H383">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="I383" t="s">
         <v>96</v>
@@ -14073,7 +14129,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>11</v>
       </c>
@@ -14108,7 +14164,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -14143,7 +14199,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -14166,7 +14222,7 @@
         <v>501</v>
       </c>
       <c r="H386">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I386" t="s">
         <v>96</v>
@@ -14178,7 +14234,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -14213,7 +14269,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>11</v>
       </c>
@@ -14236,7 +14292,7 @@
         <v>717</v>
       </c>
       <c r="H388">
-        <v>0.7240000000000001</v>
+        <v>0.72400000000000009</v>
       </c>
       <c r="I388" t="s">
         <v>96</v>
@@ -14248,7 +14304,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -14271,7 +14327,7 @@
         <v>155</v>
       </c>
       <c r="H389">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I389" t="s">
         <v>96</v>
@@ -14283,7 +14339,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>11</v>
       </c>
@@ -14306,7 +14362,7 @@
         <v>1036</v>
       </c>
       <c r="H390">
-        <v>0.385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I390" t="s">
         <v>96</v>
@@ -14318,7 +14374,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>11</v>
       </c>
@@ -14341,7 +14397,7 @@
         <v>69</v>
       </c>
       <c r="H391">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I391" t="s">
         <v>96</v>
@@ -14353,7 +14409,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -14376,7 +14432,7 @@
         <v>473</v>
       </c>
       <c r="H392">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I392" t="s">
         <v>96</v>
@@ -14388,7 +14444,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -14411,7 +14467,7 @@
         <v>901</v>
       </c>
       <c r="H393">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I393" t="s">
         <v>96</v>
@@ -14423,7 +14479,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -14446,7 +14502,7 @@
         <v>272</v>
       </c>
       <c r="H394">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="I394" t="s">
         <v>96</v>
@@ -14458,7 +14514,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -14481,7 +14537,7 @@
         <v>349</v>
       </c>
       <c r="H395">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="I395" t="s">
         <v>96</v>
@@ -14493,7 +14549,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -14516,7 +14572,7 @@
         <v>311</v>
       </c>
       <c r="H396">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I396" t="s">
         <v>96</v>
@@ -14528,7 +14584,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -14551,7 +14607,7 @@
         <v>1895</v>
       </c>
       <c r="H397">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="I397" t="s">
         <v>96</v>
@@ -14563,7 +14619,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>11</v>
       </c>
@@ -14586,7 +14642,7 @@
         <v>155</v>
       </c>
       <c r="H398">
-        <v>0.033</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I398" t="s">
         <v>96</v>
@@ -14598,7 +14654,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>11</v>
       </c>
@@ -14633,7 +14689,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -14668,7 +14724,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>11</v>
       </c>
@@ -14703,7 +14759,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>11</v>
       </c>
@@ -14726,7 +14782,7 @@
         <v>1680</v>
       </c>
       <c r="H402">
-        <v>0.5760000000000001</v>
+        <v>0.57600000000000007</v>
       </c>
       <c r="I402" t="s">
         <v>96</v>
@@ -14738,7 +14794,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -14761,7 +14817,7 @@
         <v>624</v>
       </c>
       <c r="H403">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I403" t="s">
         <v>96</v>
@@ -14773,7 +14829,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>11</v>
       </c>
@@ -14796,7 +14852,7 @@
         <v>3073</v>
       </c>
       <c r="H404">
-        <v>0.321</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I404" t="s">
         <v>96</v>
@@ -14808,7 +14864,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>11</v>
       </c>
@@ -14831,7 +14887,7 @@
         <v>282</v>
       </c>
       <c r="H405">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I405" t="s">
         <v>96</v>
@@ -14843,7 +14899,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>11</v>
       </c>
@@ -14866,7 +14922,7 @@
         <v>2331</v>
       </c>
       <c r="H406">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I406" t="s">
         <v>96</v>
@@ -14878,7 +14934,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>11</v>
       </c>
@@ -14913,7 +14969,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>11</v>
       </c>
@@ -14936,7 +14992,7 @@
         <v>385</v>
       </c>
       <c r="H408">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I408" t="s">
         <v>96</v>
@@ -14945,10 +15001,10 @@
         <v>5117</v>
       </c>
       <c r="K408">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>11</v>
       </c>
@@ -14971,7 +15027,7 @@
         <v>558</v>
       </c>
       <c r="H409">
-        <v>0.517</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="I409" t="s">
         <v>96</v>
@@ -14980,10 +15036,10 @@
         <v>5117</v>
       </c>
       <c r="K409">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>11</v>
       </c>
@@ -15015,10 +15071,10 @@
         <v>5117</v>
       </c>
       <c r="K410">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -15041,7 +15097,7 @@
         <v>326</v>
       </c>
       <c r="H411">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="I411" t="s">
         <v>96</v>
@@ -15050,10 +15106,10 @@
         <v>5117</v>
       </c>
       <c r="K411">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -15085,10 +15141,10 @@
         <v>5117</v>
       </c>
       <c r="K412">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -15120,10 +15176,10 @@
         <v>5117</v>
       </c>
       <c r="K413">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -15146,7 +15202,7 @@
         <v>466</v>
       </c>
       <c r="H414">
-        <v>0.425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I414" t="s">
         <v>96</v>
@@ -15155,10 +15211,10 @@
         <v>5117</v>
       </c>
       <c r="K414">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -15181,7 +15237,7 @@
         <v>10461</v>
       </c>
       <c r="H415">
-        <v>0.229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="I415" t="s">
         <v>96</v>
@@ -15190,10 +15246,10 @@
         <v>5119</v>
       </c>
       <c r="K415">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -15216,7 +15272,7 @@
         <v>34862</v>
       </c>
       <c r="H416">
-        <v>0.764</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="I416" t="s">
         <v>96</v>
@@ -15225,10 +15281,10 @@
         <v>5119</v>
       </c>
       <c r="K416">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -15251,7 +15307,7 @@
         <v>2020</v>
       </c>
       <c r="H417">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I417" t="s">
         <v>96</v>
@@ -15260,10 +15316,10 @@
         <v>5119</v>
       </c>
       <c r="K417">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -15286,7 +15342,7 @@
         <v>11840</v>
       </c>
       <c r="H418">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I418" t="s">
         <v>96</v>
@@ -15295,10 +15351,10 @@
         <v>5119</v>
       </c>
       <c r="K418">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -15321,7 +15377,7 @@
         <v>2534</v>
       </c>
       <c r="H419">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I419" t="s">
         <v>96</v>
@@ -15330,10 +15386,10 @@
         <v>5119</v>
       </c>
       <c r="K419">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -15356,7 +15412,7 @@
         <v>16282</v>
       </c>
       <c r="H420">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I420" t="s">
         <v>96</v>
@@ -15365,10 +15421,10 @@
         <v>5119</v>
       </c>
       <c r="K420">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -15391,7 +15447,7 @@
         <v>12848</v>
       </c>
       <c r="H421">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I421" t="s">
         <v>96</v>
@@ -15400,10 +15456,10 @@
         <v>5119</v>
       </c>
       <c r="K421">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -15426,7 +15482,7 @@
         <v>356</v>
       </c>
       <c r="H422">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I422" t="s">
         <v>96</v>
@@ -15435,10 +15491,10 @@
         <v>5121</v>
       </c>
       <c r="K422">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -15461,7 +15517,7 @@
         <v>662</v>
       </c>
       <c r="H423">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="I423" t="s">
         <v>96</v>
@@ -15470,10 +15526,10 @@
         <v>5121</v>
       </c>
       <c r="K423">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -15496,7 +15552,7 @@
         <v>112</v>
       </c>
       <c r="H424">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I424" t="s">
         <v>96</v>
@@ -15505,10 +15561,10 @@
         <v>5121</v>
       </c>
       <c r="K424">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -15540,10 +15596,10 @@
         <v>5121</v>
       </c>
       <c r="K425">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -15566,7 +15622,7 @@
         <v>61</v>
       </c>
       <c r="H426">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I426" t="s">
         <v>96</v>
@@ -15575,10 +15631,10 @@
         <v>5121</v>
       </c>
       <c r="K426">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -15610,10 +15666,10 @@
         <v>5121</v>
       </c>
       <c r="K427">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -15645,10 +15701,10 @@
         <v>5121</v>
       </c>
       <c r="K428">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -15683,7 +15739,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -15706,7 +15762,7 @@
         <v>1912</v>
       </c>
       <c r="H430">
-        <v>0.8079999999999999</v>
+        <v>0.80799999999999994</v>
       </c>
       <c r="I430" t="s">
         <v>96</v>
@@ -15718,7 +15774,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -15741,7 +15797,7 @@
         <v>68</v>
       </c>
       <c r="H431">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I431" t="s">
         <v>96</v>
@@ -15753,7 +15809,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -15776,7 +15832,7 @@
         <v>598</v>
       </c>
       <c r="H432">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="I432" t="s">
         <v>96</v>
@@ -15788,7 +15844,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -15811,7 +15867,7 @@
         <v>19</v>
       </c>
       <c r="H433">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I433" t="s">
         <v>96</v>
@@ -15823,7 +15879,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -15846,7 +15902,7 @@
         <v>236</v>
       </c>
       <c r="H434">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I434" t="s">
         <v>96</v>
@@ -15858,7 +15914,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -15881,7 +15937,7 @@
         <v>494</v>
       </c>
       <c r="H435">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="I435" t="s">
         <v>96</v>
@@ -15893,7 +15949,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -15928,7 +15984,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -15951,7 +16007,7 @@
         <v>4358</v>
       </c>
       <c r="H437">
-        <v>0.674</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="I437" t="s">
         <v>96</v>
@@ -15963,7 +16019,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -15986,7 +16042,7 @@
         <v>1046</v>
       </c>
       <c r="H438">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I438" t="s">
         <v>96</v>
@@ -15998,7 +16054,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>11</v>
       </c>
@@ -16021,7 +16077,7 @@
         <v>6934</v>
       </c>
       <c r="H439">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="I439" t="s">
         <v>96</v>
@@ -16033,7 +16089,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -16056,7 +16112,7 @@
         <v>723</v>
       </c>
       <c r="H440">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I440" t="s">
         <v>96</v>
@@ -16068,7 +16124,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -16103,7 +16159,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -16126,7 +16182,7 @@
         <v>7507</v>
       </c>
       <c r="H442">
-        <v>0.331</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="I442" t="s">
         <v>96</v>
@@ -16138,7 +16194,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -16173,7 +16229,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -16196,7 +16252,7 @@
         <v>306</v>
       </c>
       <c r="H444">
-        <v>0.636</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="I444" t="s">
         <v>96</v>
@@ -16208,7 +16264,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -16231,7 +16287,7 @@
         <v>93</v>
       </c>
       <c r="H445">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I445" t="s">
         <v>96</v>
@@ -16243,7 +16299,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -16278,7 +16334,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -16313,7 +16369,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -16336,7 +16392,7 @@
         <v>283</v>
       </c>
       <c r="H448">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="I448" t="s">
         <v>96</v>
@@ -16348,7 +16404,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>11</v>
       </c>
@@ -16371,7 +16427,7 @@
         <v>484</v>
       </c>
       <c r="H449">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I449" t="s">
         <v>96</v>
@@ -16383,7 +16439,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -16406,7 +16462,7 @@
         <v>164</v>
       </c>
       <c r="H450">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="I450" t="s">
         <v>96</v>
@@ -16418,7 +16474,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -16441,7 +16497,7 @@
         <v>221</v>
       </c>
       <c r="H451">
-        <v>0.5639999999999999</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="I451" t="s">
         <v>96</v>
@@ -16453,7 +16509,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -16476,7 +16532,7 @@
         <v>148</v>
       </c>
       <c r="H452">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="I452" t="s">
         <v>96</v>
@@ -16488,7 +16544,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -16523,7 +16579,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -16546,7 +16602,7 @@
         <v>65</v>
       </c>
       <c r="H454">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I454" t="s">
         <v>96</v>
@@ -16558,7 +16614,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -16581,7 +16637,7 @@
         <v>332</v>
       </c>
       <c r="H455">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="I455" t="s">
         <v>96</v>
@@ -16593,7 +16649,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>11</v>
       </c>
@@ -16616,7 +16672,7 @@
         <v>852</v>
       </c>
       <c r="H456">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="I456" t="s">
         <v>96</v>
@@ -16628,7 +16684,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -16651,7 +16707,7 @@
         <v>2226</v>
       </c>
       <c r="H457">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I457" t="s">
         <v>96</v>
@@ -16663,7 +16719,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -16686,7 +16742,7 @@
         <v>3694</v>
       </c>
       <c r="H458">
-        <v>0.611</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I458" t="s">
         <v>96</v>
@@ -16698,7 +16754,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>11</v>
       </c>
@@ -16721,7 +16777,7 @@
         <v>990</v>
       </c>
       <c r="H459">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I459" t="s">
         <v>96</v>
@@ -16733,7 +16789,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -16756,7 +16812,7 @@
         <v>6030</v>
       </c>
       <c r="H460">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="I460" t="s">
         <v>96</v>
@@ -16768,7 +16824,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -16791,7 +16847,7 @@
         <v>1002</v>
       </c>
       <c r="H461">
-        <v>0.05400000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="I461" t="s">
         <v>96</v>
@@ -16803,7 +16859,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>11</v>
       </c>
@@ -16838,7 +16894,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -16861,7 +16917,7 @@
         <v>5686</v>
       </c>
       <c r="H463">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I463" t="s">
         <v>96</v>
@@ -16873,7 +16929,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -16896,7 +16952,7 @@
         <v>167</v>
       </c>
       <c r="H464">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I464" t="s">
         <v>96</v>
@@ -16908,7 +16964,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -16943,7 +16999,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -16966,7 +17022,7 @@
         <v>141</v>
       </c>
       <c r="H466">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I466" t="s">
         <v>96</v>
@@ -16978,7 +17034,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>11</v>
       </c>
@@ -17001,7 +17057,7 @@
         <v>593</v>
       </c>
       <c r="H467">
-        <v>0.382</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="I467" t="s">
         <v>96</v>
@@ -17013,7 +17069,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>11</v>
       </c>
@@ -17036,7 +17092,7 @@
         <v>36</v>
       </c>
       <c r="H468">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I468" t="s">
         <v>96</v>
@@ -17048,7 +17104,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>11</v>
       </c>
@@ -17071,7 +17127,7 @@
         <v>253</v>
       </c>
       <c r="H469">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="I469" t="s">
         <v>96</v>
@@ -17083,7 +17139,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>11</v>
       </c>
@@ -17106,7 +17162,7 @@
         <v>495</v>
       </c>
       <c r="H470">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I470" t="s">
         <v>96</v>
@@ -17118,7 +17174,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>11</v>
       </c>
@@ -17153,7 +17209,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>11</v>
       </c>
@@ -17176,7 +17232,7 @@
         <v>608</v>
       </c>
       <c r="H472">
-        <v>0.642</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="I472" t="s">
         <v>96</v>
@@ -17188,7 +17244,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -17211,7 +17267,7 @@
         <v>235</v>
       </c>
       <c r="H473">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I473" t="s">
         <v>96</v>
@@ -17223,7 +17279,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>11</v>
       </c>
@@ -17246,7 +17302,7 @@
         <v>1241</v>
       </c>
       <c r="H474">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="I474" t="s">
         <v>96</v>
@@ -17258,7 +17314,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>11</v>
       </c>
@@ -17293,7 +17349,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>11</v>
       </c>
@@ -17316,7 +17372,7 @@
         <v>579</v>
       </c>
       <c r="H476">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I476" t="s">
         <v>96</v>
@@ -17328,7 +17384,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>11</v>
       </c>
@@ -17351,7 +17407,7 @@
         <v>722</v>
       </c>
       <c r="H477">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I477" t="s">
         <v>96</v>
@@ -17363,7 +17419,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>11</v>
       </c>
@@ -17386,7 +17442,7 @@
         <v>421</v>
       </c>
       <c r="H478">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="I478" t="s">
         <v>96</v>
@@ -17398,7 +17454,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>11</v>
       </c>
@@ -17421,7 +17477,7 @@
         <v>547</v>
       </c>
       <c r="H479">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="I479" t="s">
         <v>96</v>
@@ -17433,7 +17489,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>11</v>
       </c>
@@ -17456,7 +17512,7 @@
         <v>194</v>
       </c>
       <c r="H480">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I480" t="s">
         <v>96</v>
@@ -17468,7 +17524,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>11</v>
       </c>
@@ -17491,7 +17547,7 @@
         <v>993</v>
       </c>
       <c r="H481">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I481" t="s">
         <v>96</v>
@@ -17503,7 +17559,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>11</v>
       </c>
@@ -17526,7 +17582,7 @@
         <v>62</v>
       </c>
       <c r="H482">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I482" t="s">
         <v>96</v>
@@ -17538,7 +17594,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>11</v>
       </c>
@@ -17573,7 +17629,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>11</v>
       </c>
@@ -17608,7 +17664,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>11</v>
       </c>
@@ -17643,7 +17699,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>11</v>
       </c>
@@ -17678,7 +17734,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -17701,7 +17757,7 @@
         <v>187</v>
       </c>
       <c r="H487">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I487" t="s">
         <v>96</v>
@@ -17713,7 +17769,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -17736,7 +17792,7 @@
         <v>1188</v>
       </c>
       <c r="H488">
-        <v>0.352</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I488" t="s">
         <v>96</v>
@@ -17748,7 +17804,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>11</v>
       </c>
@@ -17771,7 +17827,7 @@
         <v>87</v>
       </c>
       <c r="H489">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I489" t="s">
         <v>96</v>
@@ -17783,7 +17839,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -17806,7 +17862,7 @@
         <v>662</v>
       </c>
       <c r="H490">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="I490" t="s">
         <v>96</v>
@@ -17818,7 +17874,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -17841,7 +17897,7 @@
         <v>1138</v>
       </c>
       <c r="H491">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I491" t="s">
         <v>96</v>
@@ -17853,7 +17909,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -17876,7 +17932,7 @@
         <v>436</v>
       </c>
       <c r="H492">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I492" t="s">
         <v>96</v>
@@ -17888,7 +17944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -17911,7 +17967,7 @@
         <v>770</v>
       </c>
       <c r="H493">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I493" t="s">
         <v>96</v>
@@ -17923,7 +17979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>11</v>
       </c>
@@ -17946,7 +18002,7 @@
         <v>164</v>
       </c>
       <c r="H494">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I494" t="s">
         <v>96</v>
@@ -17958,7 +18014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -17993,7 +18049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -18016,7 +18072,7 @@
         <v>107</v>
       </c>
       <c r="H496">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="I496" t="s">
         <v>96</v>
@@ -18028,7 +18084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -18051,7 +18107,7 @@
         <v>674</v>
       </c>
       <c r="H497">
-        <v>0.211</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="I497" t="s">
         <v>96</v>
@@ -18063,7 +18119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -18098,7 +18154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -18121,7 +18177,7 @@
         <v>8507</v>
       </c>
       <c r="H499">
-        <v>0.479</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="I499" t="s">
         <v>96</v>
@@ -18130,10 +18186,10 @@
         <v>5143</v>
       </c>
       <c r="K499">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="500" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -18156,7 +18212,7 @@
         <v>9110</v>
       </c>
       <c r="H500">
-        <v>0.513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="I500" t="s">
         <v>96</v>
@@ -18165,10 +18221,10 @@
         <v>5143</v>
       </c>
       <c r="K500">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="501" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>11</v>
       </c>
@@ -18191,7 +18247,7 @@
         <v>1541</v>
       </c>
       <c r="H501">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I501" t="s">
         <v>96</v>
@@ -18200,10 +18256,10 @@
         <v>5143</v>
       </c>
       <c r="K501">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="502" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>11</v>
       </c>
@@ -18226,7 +18282,7 @@
         <v>7968</v>
       </c>
       <c r="H502">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I502" t="s">
         <v>96</v>
@@ -18235,10 +18291,10 @@
         <v>5143</v>
       </c>
       <c r="K502">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="503" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -18261,7 +18317,7 @@
         <v>1291</v>
       </c>
       <c r="H503">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I503" t="s">
         <v>96</v>
@@ -18270,10 +18326,10 @@
         <v>5143</v>
       </c>
       <c r="K503">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="504" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>11</v>
       </c>
@@ -18296,7 +18352,7 @@
         <v>8730</v>
       </c>
       <c r="H504">
-        <v>0.301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I504" t="s">
         <v>96</v>
@@ -18305,10 +18361,10 @@
         <v>5143</v>
       </c>
       <c r="K504">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="505" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>11</v>
       </c>
@@ -18340,10 +18396,10 @@
         <v>5143</v>
       </c>
       <c r="K505">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="506" spans="1:11">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>11</v>
       </c>
@@ -18366,7 +18422,7 @@
         <v>818</v>
       </c>
       <c r="H506">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="I506" t="s">
         <v>96</v>
@@ -18378,7 +18434,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>11</v>
       </c>
@@ -18401,7 +18457,7 @@
         <v>2024</v>
       </c>
       <c r="H507">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="I507" t="s">
         <v>96</v>
@@ -18413,7 +18469,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>11</v>
       </c>
@@ -18436,7 +18492,7 @@
         <v>979</v>
       </c>
       <c r="H508">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I508" t="s">
         <v>96</v>
@@ -18448,7 +18504,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>11</v>
       </c>
@@ -18483,7 +18539,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -18506,7 +18562,7 @@
         <v>292</v>
       </c>
       <c r="H510">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="I510" t="s">
         <v>96</v>
@@ -18518,7 +18574,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -18553,7 +18609,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -18576,7 +18632,7 @@
         <v>4395</v>
       </c>
       <c r="H512">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="I512" t="s">
         <v>96</v>
@@ -18588,7 +18644,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -18623,7 +18679,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>11</v>
       </c>
@@ -18646,7 +18702,7 @@
         <v>862</v>
       </c>
       <c r="H514">
-        <v>0.662</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="I514" t="s">
         <v>96</v>
@@ -18658,7 +18714,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>11</v>
       </c>
@@ -18681,7 +18737,7 @@
         <v>20</v>
       </c>
       <c r="H515">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I515" t="s">
         <v>96</v>
@@ -18693,7 +18749,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>11</v>
       </c>
@@ -18728,7 +18784,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>11</v>
       </c>
@@ -18751,7 +18807,7 @@
         <v>5</v>
       </c>
       <c r="H517">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I517" t="s">
         <v>96</v>
@@ -18763,7 +18819,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>11</v>
       </c>
@@ -18798,7 +18854,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>11</v>
       </c>
@@ -18821,7 +18877,7 @@
         <v>85</v>
       </c>
       <c r="H519">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I519" t="s">
         <v>96</v>
@@ -18833,7 +18889,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>11</v>
       </c>
@@ -18856,7 +18912,7 @@
         <v>432</v>
       </c>
       <c r="H520">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="I520" t="s">
         <v>96</v>
@@ -18868,7 +18924,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>11</v>
       </c>
@@ -18891,7 +18947,7 @@
         <v>723</v>
       </c>
       <c r="H521">
-        <v>0.5820000000000001</v>
+        <v>0.58200000000000007</v>
       </c>
       <c r="I521" t="s">
         <v>96</v>
@@ -18903,7 +18959,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>11</v>
       </c>
@@ -18926,7 +18982,7 @@
         <v>136</v>
       </c>
       <c r="H522">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I522" t="s">
         <v>96</v>
@@ -18938,7 +18994,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>11</v>
       </c>
@@ -18973,7 +19029,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>11</v>
       </c>
@@ -18996,7 +19052,7 @@
         <v>47</v>
       </c>
       <c r="H524">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I524" t="s">
         <v>96</v>
@@ -19008,7 +19064,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>11</v>
       </c>
@@ -19031,7 +19087,7 @@
         <v>496</v>
       </c>
       <c r="H525">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I525" t="s">
         <v>96</v>
@@ -19043,7 +19099,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>11</v>
       </c>
@@ -19066,7 +19122,7 @@
         <v>784</v>
       </c>
       <c r="H526">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="I526" t="s">
         <v>96</v>

--- a/Modulo4/out/info_partidos/data_Arkansas.xlsx
+++ b/Modulo4/out/info_partidos/data_Arkansas.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/gonzalo_delgado_r_uni_pe/Documents/Desktop/PythonFundamentos/Modulo4/out/info_partidos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DA8EFE79F42A11DD32160BE3833D0EB67BCFB0D3" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6AB918CF-3792-4B8D-BBFF-E5734873FADE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Arkansas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -316,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,19 +374,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,27 +452,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,24 +486,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,20 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -794,7 +738,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -817,7 +761,7 @@
         <v>724</v>
       </c>
       <c r="H3">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="I3" t="s">
         <v>96</v>
@@ -829,7 +773,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -852,7 +796,7 @@
         <v>146</v>
       </c>
       <c r="H4">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="I4" t="s">
         <v>96</v>
@@ -864,7 +808,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -887,7 +831,7 @@
         <v>1073</v>
       </c>
       <c r="H5">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="I5" t="s">
         <v>96</v>
@@ -899,7 +843,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -934,7 +878,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -957,7 +901,7 @@
         <v>789</v>
       </c>
       <c r="H7">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
@@ -969,7 +913,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -992,7 +936,7 @@
         <v>593</v>
       </c>
       <c r="H8">
-        <v>0.21299999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="I8" t="s">
         <v>96</v>
@@ -1004,7 +948,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +971,7 @@
         <v>980</v>
       </c>
       <c r="H9">
-        <v>0.33800000000000002</v>
+        <v>0.338</v>
       </c>
       <c r="I9" t="s">
         <v>96</v>
@@ -1036,10 +980,10 @@
         <v>5003</v>
       </c>
       <c r="K9">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1006,7 @@
         <v>1375</v>
       </c>
       <c r="H10">
-        <v>0.47399999999999998</v>
+        <v>0.474</v>
       </c>
       <c r="I10" t="s">
         <v>96</v>
@@ -1071,10 +1015,10 @@
         <v>5003</v>
       </c>
       <c r="K10">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1041,7 @@
         <v>104</v>
       </c>
       <c r="H11">
-        <v>7.2000000000000008E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I11" t="s">
         <v>96</v>
@@ -1106,10 +1050,10 @@
         <v>5003</v>
       </c>
       <c r="K11">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1076,7 @@
         <v>586</v>
       </c>
       <c r="H12">
-        <v>0.40400000000000003</v>
+        <v>0.404</v>
       </c>
       <c r="I12" t="s">
         <v>96</v>
@@ -1141,10 +1085,10 @@
         <v>5003</v>
       </c>
       <c r="K12">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +1111,7 @@
         <v>45</v>
       </c>
       <c r="H13">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="I13" t="s">
         <v>96</v>
@@ -1176,10 +1120,10 @@
         <v>5003</v>
       </c>
       <c r="K13">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1146,7 @@
         <v>281</v>
       </c>
       <c r="H14">
-        <v>0.19400000000000001</v>
+        <v>0.194</v>
       </c>
       <c r="I14" t="s">
         <v>96</v>
@@ -1211,10 +1155,10 @@
         <v>5003</v>
       </c>
       <c r="K14">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1181,7 @@
         <v>403</v>
       </c>
       <c r="H15">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
@@ -1246,10 +1190,10 @@
         <v>5003</v>
       </c>
       <c r="K15">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1216,7 @@
         <v>807</v>
       </c>
       <c r="H16">
-        <v>0.36199999999999999</v>
+        <v>0.362</v>
       </c>
       <c r="I16" t="s">
         <v>96</v>
@@ -1281,10 +1225,10 @@
         <v>5005</v>
       </c>
       <c r="K16">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1316,10 +1260,10 @@
         <v>5005</v>
       </c>
       <c r="K17">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1286,7 @@
         <v>452</v>
       </c>
       <c r="H18">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="I18" t="s">
         <v>96</v>
@@ -1351,10 +1295,10 @@
         <v>5005</v>
       </c>
       <c r="K18">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1386,10 +1330,10 @@
         <v>5005</v>
       </c>
       <c r="K19">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1356,7 @@
         <v>376</v>
       </c>
       <c r="H20">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="I20" t="s">
         <v>96</v>
@@ -1421,10 +1365,10 @@
         <v>5005</v>
       </c>
       <c r="K20">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1456,10 +1400,10 @@
         <v>5005</v>
       </c>
       <c r="K21">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1426,7 @@
         <v>2480</v>
       </c>
       <c r="H22">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
@@ -1491,10 +1435,10 @@
         <v>5005</v>
       </c>
       <c r="K22">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1461,7 @@
         <v>4696</v>
       </c>
       <c r="H23">
-        <v>0.44900000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="I23" t="s">
         <v>96</v>
@@ -1529,7 +1473,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1496,7 @@
         <v>5650</v>
       </c>
       <c r="H24">
-        <v>0.54100000000000004</v>
+        <v>0.541</v>
       </c>
       <c r="I24" t="s">
         <v>96</v>
@@ -1564,7 +1508,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1543,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1566,7 @@
         <v>11828</v>
       </c>
       <c r="H26">
-        <v>0.27900000000000003</v>
+        <v>0.279</v>
       </c>
       <c r="I26" t="s">
         <v>96</v>
@@ -1634,7 +1578,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1601,7 @@
         <v>2272</v>
       </c>
       <c r="H27">
-        <v>5.4000000000000013E-2</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I27" t="s">
         <v>96</v>
@@ -1669,7 +1613,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1636,7 @@
         <v>12863</v>
       </c>
       <c r="H28">
-        <v>0.30299999999999999</v>
+        <v>0.303</v>
       </c>
       <c r="I28" t="s">
         <v>96</v>
@@ -1704,7 +1648,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1727,7 +1671,7 @@
         <v>11909</v>
       </c>
       <c r="H29">
-        <v>0.28100000000000003</v>
+        <v>0.281</v>
       </c>
       <c r="I29" t="s">
         <v>96</v>
@@ -1739,7 +1683,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1706,7 @@
         <v>469</v>
       </c>
       <c r="H30">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="I30" t="s">
         <v>96</v>
@@ -1774,7 +1718,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1741,7 @@
         <v>721</v>
       </c>
       <c r="H31">
-        <v>0.59200000000000008</v>
+        <v>0.5920000000000001</v>
       </c>
       <c r="I31" t="s">
         <v>96</v>
@@ -1809,7 +1753,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1832,7 +1776,7 @@
         <v>478</v>
       </c>
       <c r="H32">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I32" t="s">
         <v>96</v>
@@ -1844,7 +1788,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1811,7 @@
         <v>2577</v>
       </c>
       <c r="H33">
-        <v>0.40699999999999997</v>
+        <v>0.407</v>
       </c>
       <c r="I33" t="s">
         <v>96</v>
@@ -1879,7 +1823,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1846,7 @@
         <v>267</v>
       </c>
       <c r="H34">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="I34" t="s">
         <v>96</v>
@@ -1914,7 +1858,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1893,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1928,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +1951,7 @@
         <v>106</v>
       </c>
       <c r="H37">
-        <v>0.14899999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="I37" t="s">
         <v>96</v>
@@ -2019,7 +1963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +1986,7 @@
         <v>593</v>
       </c>
       <c r="H38">
-        <v>0.83200000000000007</v>
+        <v>0.8320000000000001</v>
       </c>
       <c r="I38" t="s">
         <v>96</v>
@@ -2054,7 +1998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2077,7 +2021,7 @@
         <v>94</v>
       </c>
       <c r="H39">
-        <v>5.4000000000000013E-2</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>96</v>
@@ -2089,7 +2033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2091,7 @@
         <v>45</v>
       </c>
       <c r="H41">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="I41" t="s">
         <v>96</v>
@@ -2159,7 +2103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2126,7 @@
         <v>361</v>
       </c>
       <c r="H42">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="I42" t="s">
         <v>96</v>
@@ -2194,7 +2138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2161,7 @@
         <v>393</v>
       </c>
       <c r="H43">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="I43" t="s">
         <v>96</v>
@@ -2229,7 +2173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -2264,7 +2208,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2243,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2322,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="H46">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="I46" t="s">
         <v>96</v>
@@ -2334,7 +2278,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2301,7 @@
         <v>172</v>
       </c>
       <c r="H47">
-        <v>0.41599999999999998</v>
+        <v>0.416</v>
       </c>
       <c r="I47" t="s">
         <v>96</v>
@@ -2369,7 +2313,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2404,7 +2348,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +2383,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2462,7 +2406,7 @@
         <v>142</v>
       </c>
       <c r="H50">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="I50" t="s">
         <v>96</v>
@@ -2474,7 +2418,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2506,10 +2450,10 @@
         <v>5015</v>
       </c>
       <c r="K51">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2541,10 +2485,10 @@
         <v>5015</v>
       </c>
       <c r="K52">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2576,10 +2520,10 @@
         <v>5015</v>
       </c>
       <c r="K53">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2611,10 +2555,10 @@
         <v>5015</v>
       </c>
       <c r="K54">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2646,10 +2590,10 @@
         <v>5015</v>
       </c>
       <c r="K55">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2681,10 +2625,10 @@
         <v>5015</v>
       </c>
       <c r="K56">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2716,10 +2660,10 @@
         <v>5015</v>
       </c>
       <c r="K57">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2742,7 +2686,7 @@
         <v>247</v>
       </c>
       <c r="H58">
-        <v>0.14599999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="I58" t="s">
         <v>96</v>
@@ -2754,7 +2698,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2777,7 +2721,7 @@
         <v>1370</v>
       </c>
       <c r="H59">
-        <v>0.81099999999999994</v>
+        <v>0.8109999999999999</v>
       </c>
       <c r="I59" t="s">
         <v>96</v>
@@ -2789,7 +2733,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="H60">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="I60" t="s">
         <v>96</v>
@@ -2824,7 +2768,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +2791,7 @@
         <v>416</v>
       </c>
       <c r="H61">
-        <v>0.51100000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="I61" t="s">
         <v>96</v>
@@ -2859,7 +2803,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="H62">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="I62" t="s">
         <v>96</v>
@@ -2894,7 +2838,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2861,7 @@
         <v>162</v>
       </c>
       <c r="H63">
-        <v>0.19900000000000001</v>
+        <v>0.199</v>
       </c>
       <c r="I63" t="s">
         <v>96</v>
@@ -2929,7 +2873,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2964,7 +2908,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2931,7 @@
         <v>494</v>
       </c>
       <c r="H65">
-        <v>0.22500000000000001</v>
+        <v>0.225</v>
       </c>
       <c r="I65" t="s">
         <v>96</v>
@@ -2999,7 +2943,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -3034,7 +2978,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3001,7 @@
         <v>144</v>
       </c>
       <c r="H67">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I67" t="s">
         <v>96</v>
@@ -3069,7 +3013,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3036,7 @@
         <v>694</v>
       </c>
       <c r="H68">
-        <v>0.26400000000000001</v>
+        <v>0.264</v>
       </c>
       <c r="I68" t="s">
         <v>96</v>
@@ -3104,7 +3048,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3127,7 +3071,7 @@
         <v>102</v>
       </c>
       <c r="H69">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="I69" t="s">
         <v>96</v>
@@ -3139,7 +3083,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3162,7 +3106,7 @@
         <v>750</v>
       </c>
       <c r="H70">
-        <v>0.28499999999999998</v>
+        <v>0.285</v>
       </c>
       <c r="I70" t="s">
         <v>96</v>
@@ -3174,7 +3118,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3197,7 +3141,7 @@
         <v>907</v>
       </c>
       <c r="H71">
-        <v>0.34499999999999997</v>
+        <v>0.345</v>
       </c>
       <c r="I71" t="s">
         <v>96</v>
@@ -3209,7 +3153,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3176,7 @@
         <v>656</v>
       </c>
       <c r="H72">
-        <v>0.35499999999999998</v>
+        <v>0.355</v>
       </c>
       <c r="I72" t="s">
         <v>96</v>
@@ -3244,7 +3188,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -3279,7 +3223,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3302,7 +3246,7 @@
         <v>48</v>
       </c>
       <c r="H74">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I74" t="s">
         <v>96</v>
@@ -3314,7 +3258,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3337,7 +3281,7 @@
         <v>339</v>
       </c>
       <c r="H75">
-        <v>0.40699999999999997</v>
+        <v>0.407</v>
       </c>
       <c r="I75" t="s">
         <v>96</v>
@@ -3349,7 +3293,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3372,7 +3316,7 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I76" t="s">
         <v>96</v>
@@ -3384,7 +3328,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3407,7 +3351,7 @@
         <v>136</v>
       </c>
       <c r="H77">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I77" t="s">
         <v>96</v>
@@ -3419,7 +3363,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3442,7 +3386,7 @@
         <v>276</v>
       </c>
       <c r="H78">
-        <v>0.33100000000000002</v>
+        <v>0.331</v>
       </c>
       <c r="I78" t="s">
         <v>96</v>
@@ -3454,7 +3398,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3421,7 @@
         <v>316</v>
       </c>
       <c r="H79">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="I79" t="s">
         <v>96</v>
@@ -3489,7 +3433,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3512,7 +3456,7 @@
         <v>758</v>
       </c>
       <c r="H80">
-        <v>0.68700000000000006</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>96</v>
@@ -3524,7 +3468,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3491,7 @@
         <v>339</v>
       </c>
       <c r="H81">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="I81" t="s">
         <v>96</v>
@@ -3559,7 +3503,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3582,7 +3526,7 @@
         <v>2530</v>
       </c>
       <c r="H82">
-        <v>0.36799999999999999</v>
+        <v>0.368</v>
       </c>
       <c r="I82" t="s">
         <v>96</v>
@@ -3594,7 +3538,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3617,7 +3561,7 @@
         <v>210</v>
       </c>
       <c r="H83">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="I83" t="s">
         <v>96</v>
@@ -3629,7 +3573,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3596,7 @@
         <v>1392</v>
       </c>
       <c r="H84">
-        <v>0.20300000000000001</v>
+        <v>0.203</v>
       </c>
       <c r="I84" t="s">
         <v>96</v>
@@ -3664,7 +3608,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3687,7 +3631,7 @@
         <v>2227</v>
       </c>
       <c r="H85">
-        <v>0.32400000000000001</v>
+        <v>0.324</v>
       </c>
       <c r="I85" t="s">
         <v>96</v>
@@ -3699,7 +3643,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -3731,10 +3675,10 @@
         <v>5025</v>
       </c>
       <c r="K86">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3701,7 @@
         <v>382</v>
       </c>
       <c r="H87">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I87" t="s">
         <v>96</v>
@@ -3766,10 +3710,10 @@
         <v>5025</v>
       </c>
       <c r="K87">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -3792,7 +3736,7 @@
         <v>62</v>
       </c>
       <c r="H88">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="I88" t="s">
         <v>96</v>
@@ -3801,10 +3745,10 @@
         <v>5025</v>
       </c>
       <c r="K88">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3827,7 +3771,7 @@
         <v>503</v>
       </c>
       <c r="H89">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="I89" t="s">
         <v>96</v>
@@ -3836,10 +3780,10 @@
         <v>5025</v>
       </c>
       <c r="K89">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -3862,7 +3806,7 @@
         <v>32</v>
       </c>
       <c r="H90">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="I90" t="s">
         <v>96</v>
@@ -3871,10 +3815,10 @@
         <v>5025</v>
       </c>
       <c r="K90">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -3897,7 +3841,7 @@
         <v>313</v>
       </c>
       <c r="H91">
-        <v>0.20899999999999999</v>
+        <v>0.209</v>
       </c>
       <c r="I91" t="s">
         <v>96</v>
@@ -3906,10 +3850,10 @@
         <v>5025</v>
       </c>
       <c r="K91">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -3932,7 +3876,7 @@
         <v>550</v>
       </c>
       <c r="H92">
-        <v>0.36799999999999999</v>
+        <v>0.368</v>
       </c>
       <c r="I92" t="s">
         <v>96</v>
@@ -3941,10 +3885,10 @@
         <v>5025</v>
       </c>
       <c r="K92">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3979,7 +3923,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -4002,7 +3946,7 @@
         <v>1008</v>
       </c>
       <c r="H94">
-        <v>0.73799999999999999</v>
+        <v>0.738</v>
       </c>
       <c r="I94" t="s">
         <v>96</v>
@@ -4014,7 +3958,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -4037,7 +3981,7 @@
         <v>208</v>
       </c>
       <c r="H95">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="I95" t="s">
         <v>96</v>
@@ -4049,7 +3993,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4072,7 +4016,7 @@
         <v>1149</v>
       </c>
       <c r="H96">
-        <v>0.36499999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="I96" t="s">
         <v>96</v>
@@ -4084,7 +4028,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4107,7 +4051,7 @@
         <v>103</v>
       </c>
       <c r="H97">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="I97" t="s">
         <v>96</v>
@@ -4119,7 +4063,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4142,7 +4086,7 @@
         <v>634</v>
       </c>
       <c r="H98">
-        <v>0.20100000000000001</v>
+        <v>0.201</v>
       </c>
       <c r="I98" t="s">
         <v>96</v>
@@ -4154,7 +4098,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4189,7 +4133,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4156,7 @@
         <v>840</v>
       </c>
       <c r="H100">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="I100" t="s">
         <v>96</v>
@@ -4224,7 +4168,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4259,7 +4203,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4282,7 +4226,7 @@
         <v>101</v>
       </c>
       <c r="H102">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="I102" t="s">
         <v>96</v>
@@ -4294,7 +4238,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4317,7 +4261,7 @@
         <v>805</v>
       </c>
       <c r="H103">
-        <v>0.36199999999999999</v>
+        <v>0.362</v>
       </c>
       <c r="I103" t="s">
         <v>96</v>
@@ -4329,7 +4273,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4352,7 +4296,7 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="I104" t="s">
         <v>96</v>
@@ -4364,7 +4308,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4399,7 +4343,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4422,7 +4366,7 @@
         <v>741</v>
       </c>
       <c r="H106">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="I106" t="s">
         <v>96</v>
@@ -4434,7 +4378,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -4457,7 +4401,7 @@
         <v>1862</v>
       </c>
       <c r="H107">
-        <v>0.33600000000000002</v>
+        <v>0.336</v>
       </c>
       <c r="I107" t="s">
         <v>96</v>
@@ -4469,7 +4413,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4504,7 +4448,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4471,7 @@
         <v>851</v>
       </c>
       <c r="H109">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I109" t="s">
         <v>96</v>
@@ -4539,7 +4483,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4562,7 +4506,7 @@
         <v>3429</v>
       </c>
       <c r="H110">
-        <v>0.27900000000000003</v>
+        <v>0.279</v>
       </c>
       <c r="I110" t="s">
         <v>96</v>
@@ -4574,7 +4518,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4541,7 @@
         <v>477</v>
       </c>
       <c r="H111">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="I111" t="s">
         <v>96</v>
@@ -4609,7 +4553,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4644,7 +4588,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -4667,7 +4611,7 @@
         <v>4108</v>
       </c>
       <c r="H113">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="I113" t="s">
         <v>96</v>
@@ -4679,7 +4623,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4646,7 @@
         <v>874</v>
       </c>
       <c r="H114">
-        <v>0.34499999999999997</v>
+        <v>0.345</v>
       </c>
       <c r="I114" t="s">
         <v>96</v>
@@ -4714,7 +4658,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4749,7 +4693,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4772,7 +4716,7 @@
         <v>591</v>
       </c>
       <c r="H116">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="I116" t="s">
         <v>96</v>
@@ -4784,7 +4728,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4819,7 +4763,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4842,7 +4786,7 @@
         <v>249</v>
       </c>
       <c r="H118">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="I118" t="s">
         <v>96</v>
@@ -4854,7 +4798,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +4821,7 @@
         <v>2251</v>
       </c>
       <c r="H119">
-        <v>0.21199999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="I119" t="s">
         <v>96</v>
@@ -4889,7 +4833,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4924,7 +4868,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4891,7 @@
         <v>722</v>
       </c>
       <c r="H121">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I121" t="s">
         <v>96</v>
@@ -4959,7 +4903,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -4982,7 +4926,7 @@
         <v>3379</v>
       </c>
       <c r="H122">
-        <v>0.76400000000000001</v>
+        <v>0.764</v>
       </c>
       <c r="I122" t="s">
         <v>96</v>
@@ -4994,7 +4938,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -5017,7 +4961,7 @@
         <v>165</v>
       </c>
       <c r="H123">
-        <v>5.4000000000000013E-2</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I123" t="s">
         <v>96</v>
@@ -5029,7 +4973,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +4996,7 @@
         <v>1359</v>
       </c>
       <c r="H124">
-        <v>0.44400000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="I124" t="s">
         <v>96</v>
@@ -5064,7 +5008,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -5099,7 +5043,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -5122,7 +5066,7 @@
         <v>543</v>
       </c>
       <c r="H126">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="I126" t="s">
         <v>96</v>
@@ -5134,7 +5078,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -5157,7 +5101,7 @@
         <v>792</v>
       </c>
       <c r="H127">
-        <v>0.25900000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="I127" t="s">
         <v>96</v>
@@ -5169,7 +5113,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5204,7 +5148,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -5227,7 +5171,7 @@
         <v>780</v>
       </c>
       <c r="H129">
-        <v>0.74199999999999999</v>
+        <v>0.742</v>
       </c>
       <c r="I129" t="s">
         <v>96</v>
@@ -5239,7 +5183,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5262,7 +5206,7 @@
         <v>139</v>
       </c>
       <c r="H130">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="I130" t="s">
         <v>96</v>
@@ -5274,7 +5218,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -5297,7 +5241,7 @@
         <v>972</v>
       </c>
       <c r="H131">
-        <v>0.40100000000000002</v>
+        <v>0.401</v>
       </c>
       <c r="I131" t="s">
         <v>96</v>
@@ -5309,7 +5253,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -5332,7 +5276,7 @@
         <v>45</v>
       </c>
       <c r="H132">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I132" t="s">
         <v>96</v>
@@ -5344,7 +5288,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -5367,7 +5311,7 @@
         <v>395</v>
       </c>
       <c r="H133">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I133" t="s">
         <v>96</v>
@@ -5379,7 +5323,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5346,7 @@
         <v>808</v>
       </c>
       <c r="H134">
-        <v>0.33400000000000002</v>
+        <v>0.334</v>
       </c>
       <c r="I134" t="s">
         <v>96</v>
@@ -5414,7 +5358,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -5437,7 +5381,7 @@
         <v>361</v>
       </c>
       <c r="H135">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="I135" t="s">
         <v>96</v>
@@ -5449,7 +5393,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -5472,7 +5416,7 @@
         <v>693</v>
       </c>
       <c r="H136">
-        <v>0.56799999999999995</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="I136" t="s">
         <v>96</v>
@@ -5484,7 +5428,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5451,7 @@
         <v>26</v>
       </c>
       <c r="H137">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="I137" t="s">
         <v>96</v>
@@ -5519,7 +5463,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5486,7 @@
         <v>163</v>
       </c>
       <c r="H138">
-        <v>0.37200000000000011</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="I138" t="s">
         <v>96</v>
@@ -5554,7 +5498,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -5577,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="I139" t="s">
         <v>96</v>
@@ -5589,7 +5533,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -5612,7 +5556,7 @@
         <v>90</v>
       </c>
       <c r="H140">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="I140" t="s">
         <v>96</v>
@@ -5624,7 +5568,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -5647,7 +5591,7 @@
         <v>148</v>
       </c>
       <c r="H141">
-        <v>0.33800000000000002</v>
+        <v>0.338</v>
       </c>
       <c r="I141" t="s">
         <v>96</v>
@@ -5659,7 +5603,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -5694,7 +5638,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5661,7 @@
         <v>1342</v>
       </c>
       <c r="H143">
-        <v>0.68599999999999994</v>
+        <v>0.6859999999999999</v>
       </c>
       <c r="I143" t="s">
         <v>96</v>
@@ -5729,7 +5673,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -5752,7 +5696,7 @@
         <v>16</v>
       </c>
       <c r="H144">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="I144" t="s">
         <v>96</v>
@@ -5764,7 +5708,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -5787,7 +5731,7 @@
         <v>234</v>
       </c>
       <c r="H145">
-        <v>0.53100000000000003</v>
+        <v>0.531</v>
       </c>
       <c r="I145" t="s">
         <v>96</v>
@@ -5799,7 +5743,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5822,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="H146">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="I146" t="s">
         <v>96</v>
@@ -5834,7 +5778,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -5869,7 +5813,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5904,7 +5848,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5927,7 +5871,7 @@
         <v>475</v>
       </c>
       <c r="H149">
-        <v>0.25700000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="I149" t="s">
         <v>96</v>
@@ -5939,7 +5883,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -5962,7 +5906,7 @@
         <v>1250</v>
       </c>
       <c r="H150">
-        <v>0.67799999999999994</v>
+        <v>0.6779999999999999</v>
       </c>
       <c r="I150" t="s">
         <v>96</v>
@@ -5974,7 +5918,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -5997,7 +5941,7 @@
         <v>176</v>
       </c>
       <c r="H151">
-        <v>8.1000000000000003E-2</v>
+        <v>0.081</v>
       </c>
       <c r="I151" t="s">
         <v>96</v>
@@ -6009,7 +5953,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -6032,7 +5976,7 @@
         <v>795</v>
       </c>
       <c r="H152">
-        <v>0.36599999999999999</v>
+        <v>0.366</v>
       </c>
       <c r="I152" t="s">
         <v>96</v>
@@ -6044,7 +5988,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -6067,7 +6011,7 @@
         <v>47</v>
       </c>
       <c r="H153">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="I153" t="s">
         <v>96</v>
@@ -6079,7 +6023,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -6102,7 +6046,7 @@
         <v>557</v>
       </c>
       <c r="H154">
-        <v>0.25600000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="I154" t="s">
         <v>96</v>
@@ -6114,7 +6058,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -6149,7 +6093,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6172,7 +6116,7 @@
         <v>2774</v>
       </c>
       <c r="H156">
-        <v>0.39800000000000002</v>
+        <v>0.398</v>
       </c>
       <c r="I156" t="s">
         <v>96</v>
@@ -6184,7 +6128,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -6207,7 +6151,7 @@
         <v>4077</v>
       </c>
       <c r="H157">
-        <v>0.58599999999999997</v>
+        <v>0.586</v>
       </c>
       <c r="I157" t="s">
         <v>96</v>
@@ -6219,7 +6163,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -6242,7 +6186,7 @@
         <v>950</v>
       </c>
       <c r="H158">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="I158" t="s">
         <v>96</v>
@@ -6254,7 +6198,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -6277,7 +6221,7 @@
         <v>5078</v>
       </c>
       <c r="H159">
-        <v>0.27200000000000002</v>
+        <v>0.272</v>
       </c>
       <c r="I159" t="s">
         <v>96</v>
@@ -6289,7 +6233,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -6312,7 +6256,7 @@
         <v>595</v>
       </c>
       <c r="H160">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="I160" t="s">
         <v>96</v>
@@ -6324,7 +6268,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -6347,7 +6291,7 @@
         <v>5426</v>
       </c>
       <c r="H161">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="I161" t="s">
         <v>96</v>
@@ -6359,7 +6303,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -6382,7 +6326,7 @@
         <v>6228</v>
       </c>
       <c r="H162">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="I162" t="s">
         <v>96</v>
@@ -6394,7 +6338,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -6417,7 +6361,7 @@
         <v>294</v>
       </c>
       <c r="H163">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="I163" t="s">
         <v>96</v>
@@ -6429,7 +6373,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -6452,7 +6396,7 @@
         <v>667</v>
       </c>
       <c r="H164">
-        <v>0.67200000000000004</v>
+        <v>0.672</v>
       </c>
       <c r="I164" t="s">
         <v>96</v>
@@ -6464,7 +6408,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -6487,7 +6431,7 @@
         <v>182</v>
       </c>
       <c r="H165">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I165" t="s">
         <v>96</v>
@@ -6499,7 +6443,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -6522,7 +6466,7 @@
         <v>1229</v>
       </c>
       <c r="H166">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="I166" t="s">
         <v>96</v>
@@ -6534,7 +6478,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -6557,7 +6501,7 @@
         <v>95</v>
       </c>
       <c r="H167">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="I167" t="s">
         <v>96</v>
@@ -6569,7 +6513,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -6592,7 +6536,7 @@
         <v>601</v>
       </c>
       <c r="H168">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="I168" t="s">
         <v>96</v>
@@ -6604,7 +6548,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -6627,7 +6571,7 @@
         <v>1093</v>
       </c>
       <c r="H169">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="I169" t="s">
         <v>96</v>
@@ -6639,7 +6583,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -6671,10 +6615,10 @@
         <v>5049</v>
       </c>
       <c r="K170">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -6697,7 +6641,7 @@
         <v>701</v>
       </c>
       <c r="H171">
-        <v>0.55399999999999994</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="I171" t="s">
         <v>96</v>
@@ -6706,10 +6650,10 @@
         <v>5049</v>
       </c>
       <c r="K171">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -6741,10 +6685,10 @@
         <v>5049</v>
       </c>
       <c r="K172">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -6776,10 +6720,10 @@
         <v>5049</v>
       </c>
       <c r="K173">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -6802,7 +6746,7 @@
         <v>32</v>
       </c>
       <c r="H174">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="I174" t="s">
         <v>96</v>
@@ -6811,10 +6755,10 @@
         <v>5049</v>
       </c>
       <c r="K174">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -6837,7 +6781,7 @@
         <v>181</v>
       </c>
       <c r="H175">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="I175" t="s">
         <v>96</v>
@@ -6846,10 +6790,10 @@
         <v>5049</v>
       </c>
       <c r="K175">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -6872,7 +6816,7 @@
         <v>385</v>
       </c>
       <c r="H176">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="I176" t="s">
         <v>96</v>
@@ -6881,10 +6825,10 @@
         <v>5049</v>
       </c>
       <c r="K176">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -6907,7 +6851,7 @@
         <v>1779</v>
       </c>
       <c r="H177">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="I177" t="s">
         <v>96</v>
@@ -6919,7 +6863,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -6942,7 +6886,7 @@
         <v>4057</v>
       </c>
       <c r="H178">
-        <v>0.68700000000000006</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I178" t="s">
         <v>96</v>
@@ -6954,7 +6898,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -6977,7 +6921,7 @@
         <v>968</v>
       </c>
       <c r="H179">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="I179" t="s">
         <v>96</v>
@@ -6989,7 +6933,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -7012,7 +6956,7 @@
         <v>5538</v>
       </c>
       <c r="H180">
-        <v>0.35199999999999998</v>
+        <v>0.352</v>
       </c>
       <c r="I180" t="s">
         <v>96</v>
@@ -7024,7 +6968,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -7047,7 +6991,7 @@
         <v>673</v>
       </c>
       <c r="H181">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="I181" t="s">
         <v>96</v>
@@ -7059,7 +7003,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -7082,7 +7026,7 @@
         <v>4050</v>
       </c>
       <c r="H182">
-        <v>0.25700000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="I182" t="s">
         <v>96</v>
@@ -7094,7 +7038,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -7117,7 +7061,7 @@
         <v>4081</v>
       </c>
       <c r="H183">
-        <v>0.25900000000000001</v>
+        <v>0.259</v>
       </c>
       <c r="I183" t="s">
         <v>96</v>
@@ -7129,7 +7073,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -7152,7 +7096,7 @@
         <v>300</v>
       </c>
       <c r="H184">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="I184" t="s">
         <v>96</v>
@@ -7164,7 +7108,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -7187,7 +7131,7 @@
         <v>690</v>
       </c>
       <c r="H185">
-        <v>0.66299999999999992</v>
+        <v>0.6629999999999999</v>
       </c>
       <c r="I185" t="s">
         <v>96</v>
@@ -7199,7 +7143,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -7222,7 +7166,7 @@
         <v>125</v>
       </c>
       <c r="H186">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="I186" t="s">
         <v>96</v>
@@ -7234,7 +7178,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -7269,7 +7213,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -7292,7 +7236,7 @@
         <v>59</v>
       </c>
       <c r="H188">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I188" t="s">
         <v>96</v>
@@ -7304,7 +7248,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -7327,7 +7271,7 @@
         <v>652</v>
       </c>
       <c r="H189">
-        <v>0.20100000000000001</v>
+        <v>0.201</v>
       </c>
       <c r="I189" t="s">
         <v>96</v>
@@ -7339,7 +7283,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -7362,7 +7306,7 @@
         <v>1329</v>
       </c>
       <c r="H190">
-        <v>0.41099999999999998</v>
+        <v>0.411</v>
       </c>
       <c r="I190" t="s">
         <v>96</v>
@@ -7374,7 +7318,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -7406,10 +7350,10 @@
         <v>5055</v>
       </c>
       <c r="K191">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -7432,7 +7376,7 @@
         <v>1236</v>
       </c>
       <c r="H192">
-        <v>0.65500000000000003</v>
+        <v>0.655</v>
       </c>
       <c r="I192" t="s">
         <v>96</v>
@@ -7441,10 +7385,10 @@
         <v>5055</v>
       </c>
       <c r="K192">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -7467,7 +7411,7 @@
         <v>376</v>
       </c>
       <c r="H193">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
       <c r="I193" t="s">
         <v>96</v>
@@ -7476,10 +7420,10 @@
         <v>5055</v>
       </c>
       <c r="K193">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -7502,7 +7446,7 @@
         <v>2103</v>
       </c>
       <c r="H194">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="I194" t="s">
         <v>96</v>
@@ -7511,10 +7455,10 @@
         <v>5055</v>
       </c>
       <c r="K194">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -7537,7 +7481,7 @@
         <v>206</v>
       </c>
       <c r="H195">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="I195" t="s">
         <v>96</v>
@@ -7546,10 +7490,10 @@
         <v>5055</v>
       </c>
       <c r="K195">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -7581,10 +7525,10 @@
         <v>5055</v>
       </c>
       <c r="K196">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -7607,7 +7551,7 @@
         <v>1709</v>
       </c>
       <c r="H197">
-        <v>0.28499999999999998</v>
+        <v>0.285</v>
       </c>
       <c r="I197" t="s">
         <v>96</v>
@@ -7616,10 +7560,10 @@
         <v>5055</v>
       </c>
       <c r="K197">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -7642,7 +7586,7 @@
         <v>164</v>
       </c>
       <c r="H198">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="I198" t="s">
         <v>96</v>
@@ -7654,7 +7598,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -7677,7 +7621,7 @@
         <v>786</v>
       </c>
       <c r="H199">
-        <v>0.79500000000000004</v>
+        <v>0.795</v>
       </c>
       <c r="I199" t="s">
         <v>96</v>
@@ -7689,7 +7633,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -7712,7 +7656,7 @@
         <v>119</v>
       </c>
       <c r="H200">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="I200" t="s">
         <v>96</v>
@@ -7724,7 +7668,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -7747,7 +7691,7 @@
         <v>821</v>
       </c>
       <c r="H201">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="I201" t="s">
         <v>96</v>
@@ -7759,7 +7703,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7726,7 @@
         <v>91</v>
       </c>
       <c r="H202">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="I202" t="s">
         <v>96</v>
@@ -7794,7 +7738,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -7817,7 +7761,7 @@
         <v>395</v>
       </c>
       <c r="H203">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I203" t="s">
         <v>96</v>
@@ -7829,7 +7773,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -7864,7 +7808,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -7887,7 +7831,7 @@
         <v>730</v>
       </c>
       <c r="H205">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="I205" t="s">
         <v>96</v>
@@ -7899,7 +7843,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -7922,7 +7866,7 @@
         <v>1562</v>
       </c>
       <c r="H206">
-        <v>0.63700000000000001</v>
+        <v>0.637</v>
       </c>
       <c r="I206" t="s">
         <v>96</v>
@@ -7934,7 +7878,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -7957,7 +7901,7 @@
         <v>235</v>
       </c>
       <c r="H207">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I207" t="s">
         <v>96</v>
@@ -7969,7 +7913,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -8004,7 +7948,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -8027,7 +7971,7 @@
         <v>81</v>
       </c>
       <c r="H209">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I209" t="s">
         <v>96</v>
@@ -8039,7 +7983,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -8062,7 +8006,7 @@
         <v>891</v>
       </c>
       <c r="H210">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="I210" t="s">
         <v>96</v>
@@ -8074,7 +8018,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -8097,7 +8041,7 @@
         <v>1381</v>
       </c>
       <c r="H211">
-        <v>0.32200000000000001</v>
+        <v>0.322</v>
       </c>
       <c r="I211" t="s">
         <v>96</v>
@@ -8109,7 +8053,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -8144,7 +8088,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -8167,7 +8111,7 @@
         <v>535</v>
       </c>
       <c r="H213">
-        <v>0.76500000000000001</v>
+        <v>0.765</v>
       </c>
       <c r="I213" t="s">
         <v>96</v>
@@ -8179,7 +8123,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -8202,7 +8146,7 @@
         <v>117</v>
       </c>
       <c r="H214">
-        <v>7.2000000000000008E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I214" t="s">
         <v>96</v>
@@ -8214,7 +8158,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -8237,7 +8181,7 @@
         <v>559</v>
       </c>
       <c r="H215">
-        <v>0.34499999999999997</v>
+        <v>0.345</v>
       </c>
       <c r="I215" t="s">
         <v>96</v>
@@ -8249,7 +8193,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -8272,7 +8216,7 @@
         <v>34</v>
       </c>
       <c r="H216">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="I216" t="s">
         <v>96</v>
@@ -8284,7 +8228,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -8307,7 +8251,7 @@
         <v>322</v>
       </c>
       <c r="H217">
-        <v>0.19900000000000001</v>
+        <v>0.199</v>
       </c>
       <c r="I217" t="s">
         <v>96</v>
@@ -8319,7 +8263,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -8342,7 +8286,7 @@
         <v>548</v>
       </c>
       <c r="H218">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="I218" t="s">
         <v>96</v>
@@ -8354,7 +8298,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -8389,7 +8333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -8412,7 +8356,7 @@
         <v>1059</v>
       </c>
       <c r="H220">
-        <v>0.64500000000000002</v>
+        <v>0.645</v>
       </c>
       <c r="I220" t="s">
         <v>96</v>
@@ -8424,7 +8368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -8447,7 +8391,7 @@
         <v>469</v>
       </c>
       <c r="H221">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="I221" t="s">
         <v>96</v>
@@ -8459,7 +8403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -8482,7 +8426,7 @@
         <v>2077</v>
       </c>
       <c r="H222">
-        <v>0.34899999999999998</v>
+        <v>0.349</v>
       </c>
       <c r="I222" t="s">
         <v>96</v>
@@ -8494,7 +8438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -8517,7 +8461,7 @@
         <v>234</v>
       </c>
       <c r="H223">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="I223" t="s">
         <v>96</v>
@@ -8529,7 +8473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -8564,7 +8508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -8587,7 +8531,7 @@
         <v>1644</v>
       </c>
       <c r="H225">
-        <v>0.27600000000000002</v>
+        <v>0.276</v>
       </c>
       <c r="I225" t="s">
         <v>96</v>
@@ -8599,7 +8543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -8622,7 +8566,7 @@
         <v>239</v>
       </c>
       <c r="H226">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="I226" t="s">
         <v>96</v>
@@ -8634,7 +8578,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8601,7 @@
         <v>516</v>
       </c>
       <c r="H227">
-        <v>0.64900000000000002</v>
+        <v>0.649</v>
       </c>
       <c r="I227" t="s">
         <v>96</v>
@@ -8669,7 +8613,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -8692,7 +8636,7 @@
         <v>139</v>
       </c>
       <c r="H228">
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="I228" t="s">
         <v>96</v>
@@ -8704,7 +8648,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -8739,7 +8683,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -8762,7 +8706,7 @@
         <v>55</v>
       </c>
       <c r="H230">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="I230" t="s">
         <v>96</v>
@@ -8774,7 +8718,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -8797,7 +8741,7 @@
         <v>349</v>
       </c>
       <c r="H231">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="I231" t="s">
         <v>96</v>
@@ -8809,7 +8753,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -8832,7 +8776,7 @@
         <v>628</v>
       </c>
       <c r="H232">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="I232" t="s">
         <v>96</v>
@@ -8844,7 +8788,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -8867,7 +8811,7 @@
         <v>225</v>
       </c>
       <c r="H233">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="I233" t="s">
         <v>96</v>
@@ -8879,7 +8823,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -8914,7 +8858,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +8893,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -8984,7 +8928,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -9007,7 +8951,7 @@
         <v>31</v>
       </c>
       <c r="H237">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I237" t="s">
         <v>96</v>
@@ -9019,7 +8963,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -9042,7 +8986,7 @@
         <v>351</v>
       </c>
       <c r="H238">
-        <v>0.21199999999999999</v>
+        <v>0.212</v>
       </c>
       <c r="I238" t="s">
         <v>96</v>
@@ -9054,7 +8998,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -9077,7 +9021,7 @@
         <v>437</v>
       </c>
       <c r="H239">
-        <v>0.26400000000000001</v>
+        <v>0.264</v>
       </c>
       <c r="I239" t="s">
         <v>96</v>
@@ -9089,7 +9033,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -9112,7 +9056,7 @@
         <v>2115</v>
       </c>
       <c r="H240">
-        <v>0.16800000000000001</v>
+        <v>0.168</v>
       </c>
       <c r="I240" t="s">
         <v>96</v>
@@ -9124,7 +9068,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -9147,7 +9091,7 @@
         <v>9936</v>
       </c>
       <c r="H241">
-        <v>0.78700000000000003</v>
+        <v>0.787</v>
       </c>
       <c r="I241" t="s">
         <v>96</v>
@@ -9159,7 +9103,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -9182,7 +9126,7 @@
         <v>180</v>
       </c>
       <c r="H242">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="I242" t="s">
         <v>96</v>
@@ -9194,7 +9138,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -9217,7 +9161,7 @@
         <v>1490</v>
       </c>
       <c r="H243">
-        <v>0.39400000000000002</v>
+        <v>0.394</v>
       </c>
       <c r="I243" t="s">
         <v>96</v>
@@ -9229,7 +9173,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -9252,7 +9196,7 @@
         <v>41</v>
       </c>
       <c r="H244">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="I244" t="s">
         <v>96</v>
@@ -9264,7 +9208,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -9299,7 +9243,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -9334,7 +9278,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -9357,7 +9301,7 @@
         <v>580</v>
       </c>
       <c r="H247">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="I247" t="s">
         <v>96</v>
@@ -9369,7 +9313,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -9404,7 +9348,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -9427,7 +9371,7 @@
         <v>234</v>
       </c>
       <c r="H249">
-        <v>6.9000000000000006E-2</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I249" t="s">
         <v>96</v>
@@ -9439,7 +9383,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -9462,7 +9406,7 @@
         <v>1338</v>
       </c>
       <c r="H250">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="I250" t="s">
         <v>96</v>
@@ -9474,7 +9418,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -9497,7 +9441,7 @@
         <v>98</v>
       </c>
       <c r="H251">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="I251" t="s">
         <v>96</v>
@@ -9509,7 +9453,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -9544,7 +9488,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -9567,7 +9511,7 @@
         <v>1004</v>
       </c>
       <c r="H253">
-        <v>0.29799999999999999</v>
+        <v>0.298</v>
       </c>
       <c r="I253" t="s">
         <v>96</v>
@@ -9579,7 +9523,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -9614,7 +9558,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -9637,7 +9581,7 @@
         <v>443</v>
       </c>
       <c r="H255">
-        <v>0.68700000000000006</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="I255" t="s">
         <v>96</v>
@@ -9649,7 +9593,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -9672,7 +9616,7 @@
         <v>54</v>
       </c>
       <c r="H256">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="I256" t="s">
         <v>96</v>
@@ -9684,7 +9628,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -9719,7 +9663,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -9742,7 +9686,7 @@
         <v>11</v>
       </c>
       <c r="H258">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="I258" t="s">
         <v>96</v>
@@ -9754,7 +9698,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -9777,7 +9721,7 @@
         <v>80</v>
       </c>
       <c r="H259">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="I259" t="s">
         <v>96</v>
@@ -9789,7 +9733,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -9824,7 +9768,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -9847,7 +9791,7 @@
         <v>726</v>
       </c>
       <c r="H261">
-        <v>0.38600000000000001</v>
+        <v>0.386</v>
       </c>
       <c r="I261" t="s">
         <v>96</v>
@@ -9859,7 +9803,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +9838,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -9917,7 +9861,7 @@
         <v>89</v>
       </c>
       <c r="H263">
-        <v>7.2000000000000008E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I263" t="s">
         <v>96</v>
@@ -9929,7 +9873,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -9952,7 +9896,7 @@
         <v>445</v>
       </c>
       <c r="H264">
-        <v>0.35799999999999998</v>
+        <v>0.358</v>
       </c>
       <c r="I264" t="s">
         <v>96</v>
@@ -9964,7 +9908,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -9987,7 +9931,7 @@
         <v>21</v>
       </c>
       <c r="H265">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="I265" t="s">
         <v>96</v>
@@ -9999,7 +9943,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -10034,7 +9978,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -10057,7 +10001,7 @@
         <v>426</v>
       </c>
       <c r="H267">
-        <v>0.34300000000000003</v>
+        <v>0.343</v>
       </c>
       <c r="I267" t="s">
         <v>96</v>
@@ -10069,7 +10013,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -10092,7 +10036,7 @@
         <v>84</v>
       </c>
       <c r="H268">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="I268" t="s">
         <v>96</v>
@@ -10104,7 +10048,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -10127,7 +10071,7 @@
         <v>956</v>
       </c>
       <c r="H269">
-        <v>0.89599999999999991</v>
+        <v>0.8959999999999999</v>
       </c>
       <c r="I269" t="s">
         <v>96</v>
@@ -10139,7 +10083,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -10162,7 +10106,7 @@
         <v>16</v>
       </c>
       <c r="H270">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="I270" t="s">
         <v>96</v>
@@ -10174,7 +10118,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -10197,7 +10141,7 @@
         <v>349</v>
       </c>
       <c r="H271">
-        <v>0.52700000000000002</v>
+        <v>0.527</v>
       </c>
       <c r="I271" t="s">
         <v>96</v>
@@ -10209,7 +10153,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -10232,7 +10176,7 @@
         <v>12</v>
       </c>
       <c r="H272">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I272" t="s">
         <v>96</v>
@@ -10244,7 +10188,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -10267,7 +10211,7 @@
         <v>120</v>
       </c>
       <c r="H273">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="I273" t="s">
         <v>96</v>
@@ -10279,7 +10223,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -10302,7 +10246,7 @@
         <v>143</v>
       </c>
       <c r="H274">
-        <v>0.21600000000000011</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="I274" t="s">
         <v>96</v>
@@ -10314,7 +10258,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -10349,7 +10293,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -10372,7 +10316,7 @@
         <v>599</v>
       </c>
       <c r="H276">
-        <v>0.75700000000000001</v>
+        <v>0.757</v>
       </c>
       <c r="I276" t="s">
         <v>96</v>
@@ -10384,7 +10328,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -10407,7 +10351,7 @@
         <v>68</v>
       </c>
       <c r="H277">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="I277" t="s">
         <v>96</v>
@@ -10419,7 +10363,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -10454,7 +10398,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -10477,7 +10421,7 @@
         <v>15</v>
       </c>
       <c r="H279">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="I279" t="s">
         <v>96</v>
@@ -10489,7 +10433,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -10524,7 +10468,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -10559,7 +10503,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -10582,7 +10526,7 @@
         <v>441</v>
       </c>
       <c r="H282">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="I282" t="s">
         <v>96</v>
@@ -10591,10 +10535,10 @@
         <v>5081</v>
       </c>
       <c r="K282">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -10617,7 +10561,7 @@
         <v>721</v>
       </c>
       <c r="H283">
-        <v>0.53100000000000003</v>
+        <v>0.531</v>
       </c>
       <c r="I283" t="s">
         <v>96</v>
@@ -10626,10 +10570,10 @@
         <v>5081</v>
       </c>
       <c r="K283">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -10652,7 +10596,7 @@
         <v>87</v>
       </c>
       <c r="H284">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="I284" t="s">
         <v>96</v>
@@ -10661,10 +10605,10 @@
         <v>5081</v>
       </c>
       <c r="K284">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -10687,7 +10631,7 @@
         <v>521</v>
       </c>
       <c r="H285">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="I285" t="s">
         <v>96</v>
@@ -10696,10 +10640,10 @@
         <v>5081</v>
       </c>
       <c r="K285">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -10722,7 +10666,7 @@
         <v>15</v>
       </c>
       <c r="H286">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="I286" t="s">
         <v>96</v>
@@ -10731,10 +10675,10 @@
         <v>5081</v>
       </c>
       <c r="K286">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -10757,7 +10701,7 @@
         <v>187</v>
       </c>
       <c r="H287">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="I287" t="s">
         <v>96</v>
@@ -10766,10 +10710,10 @@
         <v>5081</v>
       </c>
       <c r="K287">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -10792,7 +10736,7 @@
         <v>488</v>
       </c>
       <c r="H288">
-        <v>0.36299999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="I288" t="s">
         <v>96</v>
@@ -10801,10 +10745,10 @@
         <v>5081</v>
       </c>
       <c r="K288">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -10827,7 +10771,7 @@
         <v>361</v>
       </c>
       <c r="H289">
-        <v>0.28199999999999997</v>
+        <v>0.282</v>
       </c>
       <c r="I289" t="s">
         <v>96</v>
@@ -10839,7 +10783,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -10862,7 +10806,7 @@
         <v>881</v>
       </c>
       <c r="H290">
-        <v>0.68900000000000006</v>
+        <v>0.6890000000000001</v>
       </c>
       <c r="I290" t="s">
         <v>96</v>
@@ -10874,7 +10818,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -10897,7 +10841,7 @@
         <v>205</v>
       </c>
       <c r="H291">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="I291" t="s">
         <v>96</v>
@@ -10909,7 +10853,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -10932,7 +10876,7 @@
         <v>1208</v>
       </c>
       <c r="H292">
-        <v>0.36499999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="I292" t="s">
         <v>96</v>
@@ -10944,7 +10888,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -10967,7 +10911,7 @@
         <v>64</v>
       </c>
       <c r="H293">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I293" t="s">
         <v>96</v>
@@ -10979,7 +10923,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -11002,7 +10946,7 @@
         <v>687</v>
       </c>
       <c r="H294">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="I294" t="s">
         <v>96</v>
@@ -11014,7 +10958,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -11037,7 +10981,7 @@
         <v>1077</v>
       </c>
       <c r="H295">
-        <v>0.32600000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="I295" t="s">
         <v>96</v>
@@ -11049,7 +10993,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11072,7 +11016,7 @@
         <v>817</v>
       </c>
       <c r="H296">
-        <v>0.32100000000000001</v>
+        <v>0.321</v>
       </c>
       <c r="I296" t="s">
         <v>96</v>
@@ -11084,7 +11028,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -11107,7 +11051,7 @@
         <v>1664</v>
       </c>
       <c r="H297">
-        <v>0.65400000000000003</v>
+        <v>0.654</v>
       </c>
       <c r="I297" t="s">
         <v>96</v>
@@ -11119,7 +11063,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -11154,7 +11098,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -11177,7 +11121,7 @@
         <v>3826</v>
       </c>
       <c r="H299">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="I299" t="s">
         <v>96</v>
@@ -11189,7 +11133,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -11212,7 +11156,7 @@
         <v>301</v>
       </c>
       <c r="H300">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="I300" t="s">
         <v>96</v>
@@ -11224,7 +11168,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -11259,7 +11203,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -11282,7 +11226,7 @@
         <v>4028</v>
       </c>
       <c r="H302">
-        <v>0.34200000000000003</v>
+        <v>0.342</v>
       </c>
       <c r="I302" t="s">
         <v>96</v>
@@ -11294,7 +11238,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -11317,7 +11261,7 @@
         <v>1078</v>
       </c>
       <c r="H303">
-        <v>0.41399999999999998</v>
+        <v>0.414</v>
       </c>
       <c r="I303" t="s">
         <v>96</v>
@@ -11329,7 +11273,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -11352,7 +11296,7 @@
         <v>1085</v>
       </c>
       <c r="H304">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="I304" t="s">
         <v>96</v>
@@ -11364,7 +11308,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -11399,7 +11343,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -11422,7 +11366,7 @@
         <v>671</v>
       </c>
       <c r="H306">
-        <v>0.38400000000000001</v>
+        <v>0.384</v>
       </c>
       <c r="I306" t="s">
         <v>96</v>
@@ -11434,7 +11378,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -11457,7 +11401,7 @@
         <v>29</v>
       </c>
       <c r="H307">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="I307" t="s">
         <v>96</v>
@@ -11469,7 +11413,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -11492,7 +11436,7 @@
         <v>296</v>
       </c>
       <c r="H308">
-        <v>0.16900000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="I308" t="s">
         <v>96</v>
@@ -11504,7 +11448,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -11527,7 +11471,7 @@
         <v>632</v>
       </c>
       <c r="H309">
-        <v>0.36199999999999999</v>
+        <v>0.362</v>
       </c>
       <c r="I309" t="s">
         <v>96</v>
@@ -11539,7 +11483,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -11562,7 +11506,7 @@
         <v>314</v>
       </c>
       <c r="H310">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="I310" t="s">
         <v>96</v>
@@ -11574,7 +11518,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -11597,7 +11541,7 @@
         <v>421</v>
       </c>
       <c r="H311">
-        <v>0.55600000000000005</v>
+        <v>0.556</v>
       </c>
       <c r="I311" t="s">
         <v>96</v>
@@ -11609,7 +11553,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -11632,7 +11576,7 @@
         <v>318</v>
       </c>
       <c r="H312">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I312" t="s">
         <v>96</v>
@@ -11644,7 +11588,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -11667,7 +11611,7 @@
         <v>1581</v>
       </c>
       <c r="H313">
-        <v>0.43099999999999999</v>
+        <v>0.431</v>
       </c>
       <c r="I313" t="s">
         <v>96</v>
@@ -11679,7 +11623,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -11714,7 +11658,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -11737,7 +11681,7 @@
         <v>548</v>
       </c>
       <c r="H315">
-        <v>0.14899999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="I315" t="s">
         <v>96</v>
@@ -11749,7 +11693,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -11784,7 +11728,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -11807,7 +11751,7 @@
         <v>356</v>
       </c>
       <c r="H317">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="I317" t="s">
         <v>96</v>
@@ -11819,7 +11763,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -11854,7 +11798,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -11877,7 +11821,7 @@
         <v>448</v>
       </c>
       <c r="H319">
-        <v>6.4000000000000001E-2</v>
+        <v>0.064</v>
       </c>
       <c r="I319" t="s">
         <v>96</v>
@@ -11889,7 +11833,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -11912,7 +11856,7 @@
         <v>2425</v>
       </c>
       <c r="H320">
-        <v>0.34699999999999998</v>
+        <v>0.347</v>
       </c>
       <c r="I320" t="s">
         <v>96</v>
@@ -11924,7 +11868,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -11959,7 +11903,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -11994,7 +11938,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -12017,7 +11961,7 @@
         <v>2741</v>
       </c>
       <c r="H323">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="I323" t="s">
         <v>96</v>
@@ -12029,7 +11973,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -12052,7 +11996,7 @@
         <v>342</v>
       </c>
       <c r="H324">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="I324" t="s">
         <v>96</v>
@@ -12064,7 +12008,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12087,7 +12031,7 @@
         <v>2017</v>
       </c>
       <c r="H325">
-        <v>0.81900000000000006</v>
+        <v>0.8190000000000001</v>
       </c>
       <c r="I325" t="s">
         <v>96</v>
@@ -12099,7 +12043,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -12134,7 +12078,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -12157,7 +12101,7 @@
         <v>1575</v>
       </c>
       <c r="H327">
-        <v>0.42599999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="I327" t="s">
         <v>96</v>
@@ -12169,7 +12113,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -12192,7 +12136,7 @@
         <v>138</v>
       </c>
       <c r="H328">
-        <v>3.7000000000000012E-2</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I328" t="s">
         <v>96</v>
@@ -12204,7 +12148,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12239,7 +12183,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -12274,7 +12218,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12297,7 +12241,7 @@
         <v>411</v>
       </c>
       <c r="H331">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="I331" t="s">
         <v>96</v>
@@ -12309,7 +12253,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -12332,7 +12276,7 @@
         <v>843</v>
       </c>
       <c r="H332">
-        <v>0.60699999999999998</v>
+        <v>0.607</v>
       </c>
       <c r="I332" t="s">
         <v>96</v>
@@ -12344,7 +12288,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12367,7 +12311,7 @@
         <v>14</v>
       </c>
       <c r="H333">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="I333" t="s">
         <v>96</v>
@@ -12379,7 +12323,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -12402,7 +12346,7 @@
         <v>173</v>
       </c>
       <c r="H334">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="I334" t="s">
         <v>96</v>
@@ -12414,7 +12358,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -12437,7 +12381,7 @@
         <v>5</v>
       </c>
       <c r="H335">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="I335" t="s">
         <v>96</v>
@@ -12449,7 +12393,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -12484,7 +12428,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12507,7 +12451,7 @@
         <v>138</v>
       </c>
       <c r="H337">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="I337" t="s">
         <v>96</v>
@@ -12519,7 +12463,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -12542,7 +12486,7 @@
         <v>142</v>
       </c>
       <c r="H338">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="I338" t="s">
         <v>96</v>
@@ -12554,7 +12498,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -12589,7 +12533,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -12612,7 +12556,7 @@
         <v>100</v>
       </c>
       <c r="H340">
-        <v>6.2E-2</v>
+        <v>0.062</v>
       </c>
       <c r="I340" t="s">
         <v>96</v>
@@ -12624,7 +12568,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -12647,7 +12591,7 @@
         <v>672</v>
       </c>
       <c r="H341">
-        <v>0.41599999999999998</v>
+        <v>0.416</v>
       </c>
       <c r="I341" t="s">
         <v>96</v>
@@ -12659,7 +12603,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -12682,7 +12626,7 @@
         <v>68</v>
       </c>
       <c r="H342">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="I342" t="s">
         <v>96</v>
@@ -12694,7 +12638,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -12717,7 +12661,7 @@
         <v>287</v>
       </c>
       <c r="H343">
-        <v>0.17799999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="I343" t="s">
         <v>96</v>
@@ -12729,7 +12673,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -12752,7 +12696,7 @@
         <v>432</v>
       </c>
       <c r="H344">
-        <v>0.26800000000000002</v>
+        <v>0.268</v>
       </c>
       <c r="I344" t="s">
         <v>96</v>
@@ -12764,7 +12708,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12787,7 +12731,7 @@
         <v>306</v>
       </c>
       <c r="H345">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="I345" t="s">
         <v>96</v>
@@ -12799,7 +12743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -12822,7 +12766,7 @@
         <v>647</v>
       </c>
       <c r="H346">
-        <v>0.59200000000000008</v>
+        <v>0.5920000000000001</v>
       </c>
       <c r="I346" t="s">
         <v>96</v>
@@ -12834,7 +12778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -12857,7 +12801,7 @@
         <v>45</v>
       </c>
       <c r="H347">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="I347" t="s">
         <v>96</v>
@@ -12869,7 +12813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -12892,7 +12836,7 @@
         <v>232</v>
       </c>
       <c r="H348">
-        <v>0.33800000000000002</v>
+        <v>0.338</v>
       </c>
       <c r="I348" t="s">
         <v>96</v>
@@ -12904,7 +12848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -12927,7 +12871,7 @@
         <v>11</v>
       </c>
       <c r="H349">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I349" t="s">
         <v>96</v>
@@ -12939,7 +12883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -12974,7 +12918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -12997,7 +12941,7 @@
         <v>246</v>
       </c>
       <c r="H351">
-        <v>0.35899999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="I351" t="s">
         <v>96</v>
@@ -13009,7 +12953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11">
       <c r="A352" t="s">
         <v>11</v>
       </c>
@@ -13032,7 +12976,7 @@
         <v>211</v>
       </c>
       <c r="H352">
-        <v>0.51600000000000001</v>
+        <v>0.516</v>
       </c>
       <c r="I352" t="s">
         <v>96</v>
@@ -13044,7 +12988,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11">
       <c r="A353" t="s">
         <v>11</v>
       </c>
@@ -13067,7 +13011,7 @@
         <v>192</v>
       </c>
       <c r="H353">
-        <v>0.46899999999999997</v>
+        <v>0.469</v>
       </c>
       <c r="I353" t="s">
         <v>96</v>
@@ -13079,7 +13023,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13102,7 +13046,7 @@
         <v>146</v>
       </c>
       <c r="H354">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="I354" t="s">
         <v>96</v>
@@ -13114,7 +13058,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11">
       <c r="A355" t="s">
         <v>11</v>
       </c>
@@ -13137,7 +13081,7 @@
         <v>1073</v>
       </c>
       <c r="H355">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="I355" t="s">
         <v>96</v>
@@ -13149,7 +13093,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -13184,7 +13128,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13207,7 +13151,7 @@
         <v>789</v>
       </c>
       <c r="H357">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="I357" t="s">
         <v>96</v>
@@ -13219,7 +13163,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11">
       <c r="A358" t="s">
         <v>11</v>
       </c>
@@ -13242,7 +13186,7 @@
         <v>593</v>
       </c>
       <c r="H358">
-        <v>0.21299999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="I358" t="s">
         <v>96</v>
@@ -13254,7 +13198,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -13289,7 +13233,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -13312,7 +13256,7 @@
         <v>2095</v>
       </c>
       <c r="H360">
-        <v>0.75099999999999989</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="I360" t="s">
         <v>96</v>
@@ -13324,7 +13268,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13347,7 +13291,7 @@
         <v>156</v>
       </c>
       <c r="H361">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="I361" t="s">
         <v>96</v>
@@ -13359,7 +13303,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -13394,7 +13338,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>11</v>
       </c>
@@ -13417,7 +13361,7 @@
         <v>61</v>
       </c>
       <c r="H363">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="I363" t="s">
         <v>96</v>
@@ -13429,7 +13373,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -13452,7 +13396,7 @@
         <v>662</v>
       </c>
       <c r="H364">
-        <v>0.24199999999999999</v>
+        <v>0.242</v>
       </c>
       <c r="I364" t="s">
         <v>96</v>
@@ -13464,7 +13408,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -13487,7 +13431,7 @@
         <v>789</v>
       </c>
       <c r="H365">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="I365" t="s">
         <v>96</v>
@@ -13499,7 +13443,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11">
       <c r="A366" t="s">
         <v>11</v>
       </c>
@@ -13522,7 +13466,7 @@
         <v>428</v>
       </c>
       <c r="H366">
-        <v>0.34899999999999998</v>
+        <v>0.349</v>
       </c>
       <c r="I366" t="s">
         <v>96</v>
@@ -13534,7 +13478,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -13557,7 +13501,7 @@
         <v>648</v>
       </c>
       <c r="H367">
-        <v>0.52900000000000003</v>
+        <v>0.529</v>
       </c>
       <c r="I367" t="s">
         <v>96</v>
@@ -13569,7 +13513,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -13592,7 +13536,7 @@
         <v>69</v>
       </c>
       <c r="H368">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="I368" t="s">
         <v>96</v>
@@ -13604,7 +13548,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11">
       <c r="A369" t="s">
         <v>11</v>
       </c>
@@ -13627,7 +13571,7 @@
         <v>522</v>
       </c>
       <c r="H369">
-        <v>0.36299999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="I369" t="s">
         <v>96</v>
@@ -13639,7 +13583,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -13662,7 +13606,7 @@
         <v>30</v>
       </c>
       <c r="H370">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="I370" t="s">
         <v>96</v>
@@ -13674,7 +13618,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11">
       <c r="A371" t="s">
         <v>11</v>
       </c>
@@ -13697,7 +13641,7 @@
         <v>238</v>
       </c>
       <c r="H371">
-        <v>0.16500000000000001</v>
+        <v>0.165</v>
       </c>
       <c r="I371" t="s">
         <v>96</v>
@@ -13709,7 +13653,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -13744,7 +13688,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11">
       <c r="A373" t="s">
         <v>11</v>
       </c>
@@ -13776,10 +13720,10 @@
         <v>5107</v>
       </c>
       <c r="K373">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374" t="s">
         <v>11</v>
       </c>
@@ -13811,10 +13755,10 @@
         <v>5107</v>
       </c>
       <c r="K374">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
       <c r="A375" t="s">
         <v>11</v>
       </c>
@@ -13837,7 +13781,7 @@
         <v>28</v>
       </c>
       <c r="H375">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="I375" t="s">
         <v>96</v>
@@ -13846,10 +13790,10 @@
         <v>5107</v>
       </c>
       <c r="K375">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -13872,7 +13816,7 @@
         <v>363</v>
       </c>
       <c r="H376">
-        <v>0.56600000000000006</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="I376" t="s">
         <v>96</v>
@@ -13881,10 +13825,10 @@
         <v>5107</v>
       </c>
       <c r="K376">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
       <c r="A377" t="s">
         <v>11</v>
       </c>
@@ -13907,7 +13851,7 @@
         <v>11</v>
       </c>
       <c r="H377">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="I377" t="s">
         <v>96</v>
@@ -13916,10 +13860,10 @@
         <v>5107</v>
       </c>
       <c r="K377">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378" t="s">
         <v>11</v>
       </c>
@@ -13942,7 +13886,7 @@
         <v>113</v>
       </c>
       <c r="H378">
-        <v>0.17599999999999999</v>
+        <v>0.176</v>
       </c>
       <c r="I378" t="s">
         <v>96</v>
@@ -13951,10 +13895,10 @@
         <v>5107</v>
       </c>
       <c r="K378">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379" t="s">
         <v>11</v>
       </c>
@@ -13977,7 +13921,7 @@
         <v>110</v>
       </c>
       <c r="H379">
-        <v>0.17199999999999999</v>
+        <v>0.172</v>
       </c>
       <c r="I379" t="s">
         <v>96</v>
@@ -13986,10 +13930,10 @@
         <v>5107</v>
       </c>
       <c r="K379">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
       <c r="A380" t="s">
         <v>11</v>
       </c>
@@ -14012,7 +13956,7 @@
         <v>171</v>
       </c>
       <c r="H380">
-        <v>0.29899999999999999</v>
+        <v>0.299</v>
       </c>
       <c r="I380" t="s">
         <v>96</v>
@@ -14024,7 +13968,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -14047,7 +13991,7 @@
         <v>367</v>
       </c>
       <c r="H381">
-        <v>0.64200000000000002</v>
+        <v>0.642</v>
       </c>
       <c r="I381" t="s">
         <v>96</v>
@@ -14059,7 +14003,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -14082,7 +14026,7 @@
         <v>108</v>
       </c>
       <c r="H382">
-        <v>7.2000000000000008E-2</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I382" t="s">
         <v>96</v>
@@ -14094,7 +14038,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -14117,7 +14061,7 @@
         <v>511</v>
       </c>
       <c r="H383">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="I383" t="s">
         <v>96</v>
@@ -14129,7 +14073,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11">
       <c r="A384" t="s">
         <v>11</v>
       </c>
@@ -14164,7 +14108,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -14199,7 +14143,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>11</v>
       </c>
@@ -14222,7 +14166,7 @@
         <v>501</v>
       </c>
       <c r="H386">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="I386" t="s">
         <v>96</v>
@@ -14234,7 +14178,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -14269,7 +14213,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11">
       <c r="A388" t="s">
         <v>11</v>
       </c>
@@ -14292,7 +14236,7 @@
         <v>717</v>
       </c>
       <c r="H388">
-        <v>0.72400000000000009</v>
+        <v>0.7240000000000001</v>
       </c>
       <c r="I388" t="s">
         <v>96</v>
@@ -14304,7 +14248,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -14327,7 +14271,7 @@
         <v>155</v>
       </c>
       <c r="H389">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I389" t="s">
         <v>96</v>
@@ -14339,7 +14283,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>11</v>
       </c>
@@ -14362,7 +14306,7 @@
         <v>1036</v>
       </c>
       <c r="H390">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="I390" t="s">
         <v>96</v>
@@ -14374,7 +14318,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>11</v>
       </c>
@@ -14397,7 +14341,7 @@
         <v>69</v>
       </c>
       <c r="H391">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="I391" t="s">
         <v>96</v>
@@ -14409,7 +14353,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -14432,7 +14376,7 @@
         <v>473</v>
       </c>
       <c r="H392">
-        <v>0.17599999999999999</v>
+        <v>0.176</v>
       </c>
       <c r="I392" t="s">
         <v>96</v>
@@ -14444,7 +14388,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -14467,7 +14411,7 @@
         <v>901</v>
       </c>
       <c r="H393">
-        <v>0.33500000000000002</v>
+        <v>0.335</v>
       </c>
       <c r="I393" t="s">
         <v>96</v>
@@ -14479,7 +14423,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -14502,7 +14446,7 @@
         <v>272</v>
       </c>
       <c r="H394">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="I394" t="s">
         <v>96</v>
@@ -14514,7 +14458,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -14537,7 +14481,7 @@
         <v>349</v>
       </c>
       <c r="H395">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="I395" t="s">
         <v>96</v>
@@ -14549,7 +14493,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -14572,7 +14516,7 @@
         <v>311</v>
       </c>
       <c r="H396">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="I396" t="s">
         <v>96</v>
@@ -14584,7 +14528,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -14607,7 +14551,7 @@
         <v>1895</v>
       </c>
       <c r="H397">
-        <v>0.40300000000000002</v>
+        <v>0.403</v>
       </c>
       <c r="I397" t="s">
         <v>96</v>
@@ -14619,7 +14563,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>11</v>
       </c>
@@ -14642,7 +14586,7 @@
         <v>155</v>
       </c>
       <c r="H398">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="I398" t="s">
         <v>96</v>
@@ -14654,7 +14598,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>11</v>
       </c>
@@ -14689,7 +14633,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -14724,7 +14668,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11">
       <c r="A401" t="s">
         <v>11</v>
       </c>
@@ -14759,7 +14703,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11">
       <c r="A402" t="s">
         <v>11</v>
       </c>
@@ -14782,7 +14726,7 @@
         <v>1680</v>
       </c>
       <c r="H402">
-        <v>0.57600000000000007</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="I402" t="s">
         <v>96</v>
@@ -14794,7 +14738,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -14817,7 +14761,7 @@
         <v>624</v>
       </c>
       <c r="H403">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="I403" t="s">
         <v>96</v>
@@ -14829,7 +14773,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11">
       <c r="A404" t="s">
         <v>11</v>
       </c>
@@ -14852,7 +14796,7 @@
         <v>3073</v>
       </c>
       <c r="H404">
-        <v>0.32100000000000001</v>
+        <v>0.321</v>
       </c>
       <c r="I404" t="s">
         <v>96</v>
@@ -14864,7 +14808,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11">
       <c r="A405" t="s">
         <v>11</v>
       </c>
@@ -14887,7 +14831,7 @@
         <v>282</v>
       </c>
       <c r="H405">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="I405" t="s">
         <v>96</v>
@@ -14899,7 +14843,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11">
       <c r="A406" t="s">
         <v>11</v>
       </c>
@@ -14922,7 +14866,7 @@
         <v>2331</v>
       </c>
       <c r="H406">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="I406" t="s">
         <v>96</v>
@@ -14934,7 +14878,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11">
       <c r="A407" t="s">
         <v>11</v>
       </c>
@@ -14969,7 +14913,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11">
       <c r="A408" t="s">
         <v>11</v>
       </c>
@@ -14992,7 +14936,7 @@
         <v>385</v>
       </c>
       <c r="H408">
-        <v>0.35699999999999998</v>
+        <v>0.357</v>
       </c>
       <c r="I408" t="s">
         <v>96</v>
@@ -15001,10 +14945,10 @@
         <v>5117</v>
       </c>
       <c r="K408">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
       <c r="A409" t="s">
         <v>11</v>
       </c>
@@ -15027,7 +14971,7 @@
         <v>558</v>
       </c>
       <c r="H409">
-        <v>0.51700000000000002</v>
+        <v>0.517</v>
       </c>
       <c r="I409" t="s">
         <v>96</v>
@@ -15036,10 +14980,10 @@
         <v>5117</v>
       </c>
       <c r="K409">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
       <c r="A410" t="s">
         <v>11</v>
       </c>
@@ -15071,10 +15015,10 @@
         <v>5117</v>
       </c>
       <c r="K410">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -15097,7 +15041,7 @@
         <v>326</v>
       </c>
       <c r="H411">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="I411" t="s">
         <v>96</v>
@@ -15106,10 +15050,10 @@
         <v>5117</v>
       </c>
       <c r="K411">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
       <c r="A412" t="s">
         <v>11</v>
       </c>
@@ -15141,10 +15085,10 @@
         <v>5117</v>
       </c>
       <c r="K412">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -15176,10 +15120,10 @@
         <v>5117</v>
       </c>
       <c r="K413">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -15202,7 +15146,7 @@
         <v>466</v>
       </c>
       <c r="H414">
-        <v>0.42499999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="I414" t="s">
         <v>96</v>
@@ -15211,10 +15155,10 @@
         <v>5117</v>
       </c>
       <c r="K414">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -15237,7 +15181,7 @@
         <v>10461</v>
       </c>
       <c r="H415">
-        <v>0.22900000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="I415" t="s">
         <v>96</v>
@@ -15246,10 +15190,10 @@
         <v>5119</v>
       </c>
       <c r="K415">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -15272,7 +15216,7 @@
         <v>34862</v>
       </c>
       <c r="H416">
-        <v>0.76400000000000001</v>
+        <v>0.764</v>
       </c>
       <c r="I416" t="s">
         <v>96</v>
@@ -15281,10 +15225,10 @@
         <v>5119</v>
       </c>
       <c r="K416">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
       <c r="A417" t="s">
         <v>11</v>
       </c>
@@ -15307,7 +15251,7 @@
         <v>2020</v>
       </c>
       <c r="H417">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="I417" t="s">
         <v>96</v>
@@ -15316,10 +15260,10 @@
         <v>5119</v>
       </c>
       <c r="K417">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -15342,7 +15286,7 @@
         <v>11840</v>
       </c>
       <c r="H418">
-        <v>0.25600000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="I418" t="s">
         <v>96</v>
@@ -15351,10 +15295,10 @@
         <v>5119</v>
       </c>
       <c r="K418">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -15377,7 +15321,7 @@
         <v>2534</v>
       </c>
       <c r="H419">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I419" t="s">
         <v>96</v>
@@ -15386,10 +15330,10 @@
         <v>5119</v>
       </c>
       <c r="K419">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -15412,7 +15356,7 @@
         <v>16282</v>
       </c>
       <c r="H420">
-        <v>0.35199999999999998</v>
+        <v>0.352</v>
       </c>
       <c r="I420" t="s">
         <v>96</v>
@@ -15421,10 +15365,10 @@
         <v>5119</v>
       </c>
       <c r="K420">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -15447,7 +15391,7 @@
         <v>12848</v>
       </c>
       <c r="H421">
-        <v>0.27800000000000002</v>
+        <v>0.278</v>
       </c>
       <c r="I421" t="s">
         <v>96</v>
@@ -15456,10 +15400,10 @@
         <v>5119</v>
       </c>
       <c r="K421">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
       <c r="A422" t="s">
         <v>11</v>
       </c>
@@ -15482,7 +15426,7 @@
         <v>356</v>
       </c>
       <c r="H422">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="I422" t="s">
         <v>96</v>
@@ -15491,10 +15435,10 @@
         <v>5121</v>
       </c>
       <c r="K422">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
       <c r="A423" t="s">
         <v>11</v>
       </c>
@@ -15517,7 +15461,7 @@
         <v>662</v>
       </c>
       <c r="H423">
-        <v>0.61899999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="I423" t="s">
         <v>96</v>
@@ -15526,10 +15470,10 @@
         <v>5121</v>
       </c>
       <c r="K423">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
       <c r="A424" t="s">
         <v>11</v>
       </c>
@@ -15552,7 +15496,7 @@
         <v>112</v>
       </c>
       <c r="H424">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="I424" t="s">
         <v>96</v>
@@ -15561,10 +15505,10 @@
         <v>5121</v>
       </c>
       <c r="K424">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
       <c r="A425" t="s">
         <v>11</v>
       </c>
@@ -15596,10 +15540,10 @@
         <v>5121</v>
       </c>
       <c r="K425">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
       <c r="A426" t="s">
         <v>11</v>
       </c>
@@ -15622,7 +15566,7 @@
         <v>61</v>
       </c>
       <c r="H426">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="I426" t="s">
         <v>96</v>
@@ -15631,10 +15575,10 @@
         <v>5121</v>
       </c>
       <c r="K426">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
       <c r="A427" t="s">
         <v>11</v>
       </c>
@@ -15666,10 +15610,10 @@
         <v>5121</v>
       </c>
       <c r="K427">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -15701,10 +15645,10 @@
         <v>5121</v>
       </c>
       <c r="K428">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -15739,7 +15683,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -15762,7 +15706,7 @@
         <v>1912</v>
       </c>
       <c r="H430">
-        <v>0.80799999999999994</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="I430" t="s">
         <v>96</v>
@@ -15774,7 +15718,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11">
       <c r="A431" t="s">
         <v>11</v>
       </c>
@@ -15797,7 +15741,7 @@
         <v>68</v>
       </c>
       <c r="H431">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
       <c r="I431" t="s">
         <v>96</v>
@@ -15809,7 +15753,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11">
       <c r="A432" t="s">
         <v>11</v>
       </c>
@@ -15832,7 +15776,7 @@
         <v>598</v>
       </c>
       <c r="H432">
-        <v>0.41299999999999998</v>
+        <v>0.413</v>
       </c>
       <c r="I432" t="s">
         <v>96</v>
@@ -15844,7 +15788,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11">
       <c r="A433" t="s">
         <v>11</v>
       </c>
@@ -15867,7 +15811,7 @@
         <v>19</v>
       </c>
       <c r="H433">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="I433" t="s">
         <v>96</v>
@@ -15879,7 +15823,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11">
       <c r="A434" t="s">
         <v>11</v>
       </c>
@@ -15902,7 +15846,7 @@
         <v>236</v>
       </c>
       <c r="H434">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I434" t="s">
         <v>96</v>
@@ -15914,7 +15858,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -15937,7 +15881,7 @@
         <v>494</v>
       </c>
       <c r="H435">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="I435" t="s">
         <v>96</v>
@@ -15949,7 +15893,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -15984,7 +15928,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -16007,7 +15951,7 @@
         <v>4358</v>
       </c>
       <c r="H437">
-        <v>0.67400000000000004</v>
+        <v>0.674</v>
       </c>
       <c r="I437" t="s">
         <v>96</v>
@@ -16019,7 +15963,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11">
       <c r="A438" t="s">
         <v>11</v>
       </c>
@@ -16042,7 +15986,7 @@
         <v>1046</v>
       </c>
       <c r="H438">
-        <v>4.5999999999999999E-2</v>
+        <v>0.046</v>
       </c>
       <c r="I438" t="s">
         <v>96</v>
@@ -16054,7 +15998,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11">
       <c r="A439" t="s">
         <v>11</v>
       </c>
@@ -16077,7 +16021,7 @@
         <v>6934</v>
       </c>
       <c r="H439">
-        <v>0.30599999999999999</v>
+        <v>0.306</v>
       </c>
       <c r="I439" t="s">
         <v>96</v>
@@ -16089,7 +16033,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11">
       <c r="A440" t="s">
         <v>11</v>
       </c>
@@ -16112,7 +16056,7 @@
         <v>723</v>
       </c>
       <c r="H440">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="I440" t="s">
         <v>96</v>
@@ -16124,7 +16068,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11">
       <c r="A441" t="s">
         <v>11</v>
       </c>
@@ -16159,7 +16103,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -16182,7 +16126,7 @@
         <v>7507</v>
       </c>
       <c r="H442">
-        <v>0.33100000000000002</v>
+        <v>0.331</v>
       </c>
       <c r="I442" t="s">
         <v>96</v>
@@ -16194,7 +16138,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11">
       <c r="A443" t="s">
         <v>11</v>
       </c>
@@ -16229,7 +16173,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -16252,7 +16196,7 @@
         <v>306</v>
       </c>
       <c r="H444">
-        <v>0.63600000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="I444" t="s">
         <v>96</v>
@@ -16264,7 +16208,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11">
       <c r="A445" t="s">
         <v>11</v>
       </c>
@@ -16287,7 +16231,7 @@
         <v>93</v>
       </c>
       <c r="H445">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I445" t="s">
         <v>96</v>
@@ -16299,7 +16243,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -16334,7 +16278,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -16369,7 +16313,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -16392,7 +16336,7 @@
         <v>283</v>
       </c>
       <c r="H448">
-        <v>0.16900000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="I448" t="s">
         <v>96</v>
@@ -16404,7 +16348,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11">
       <c r="A449" t="s">
         <v>11</v>
       </c>
@@ -16427,7 +16371,7 @@
         <v>484</v>
       </c>
       <c r="H449">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="I449" t="s">
         <v>96</v>
@@ -16439,7 +16383,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -16462,7 +16406,7 @@
         <v>164</v>
       </c>
       <c r="H450">
-        <v>0.41799999999999998</v>
+        <v>0.418</v>
       </c>
       <c r="I450" t="s">
         <v>96</v>
@@ -16474,7 +16418,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -16497,7 +16441,7 @@
         <v>221</v>
       </c>
       <c r="H451">
-        <v>0.56399999999999995</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I451" t="s">
         <v>96</v>
@@ -16509,7 +16453,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -16532,7 +16476,7 @@
         <v>148</v>
       </c>
       <c r="H452">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="I452" t="s">
         <v>96</v>
@@ -16544,7 +16488,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -16579,7 +16523,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -16602,7 +16546,7 @@
         <v>65</v>
       </c>
       <c r="H454">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="I454" t="s">
         <v>96</v>
@@ -16614,7 +16558,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -16637,7 +16581,7 @@
         <v>332</v>
       </c>
       <c r="H455">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="I455" t="s">
         <v>96</v>
@@ -16649,7 +16593,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11">
       <c r="A456" t="s">
         <v>11</v>
       </c>
@@ -16672,7 +16616,7 @@
         <v>852</v>
       </c>
       <c r="H456">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="I456" t="s">
         <v>96</v>
@@ -16684,7 +16628,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -16707,7 +16651,7 @@
         <v>2226</v>
       </c>
       <c r="H457">
-        <v>0.36799999999999999</v>
+        <v>0.368</v>
       </c>
       <c r="I457" t="s">
         <v>96</v>
@@ -16719,7 +16663,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -16742,7 +16686,7 @@
         <v>3694</v>
       </c>
       <c r="H458">
-        <v>0.61099999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="I458" t="s">
         <v>96</v>
@@ -16754,7 +16698,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11">
       <c r="A459" t="s">
         <v>11</v>
       </c>
@@ -16777,7 +16721,7 @@
         <v>990</v>
       </c>
       <c r="H459">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="I459" t="s">
         <v>96</v>
@@ -16789,7 +16733,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -16812,7 +16756,7 @@
         <v>6030</v>
       </c>
       <c r="H460">
-        <v>0.32300000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="I460" t="s">
         <v>96</v>
@@ -16824,7 +16768,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -16847,7 +16791,7 @@
         <v>1002</v>
       </c>
       <c r="H461">
-        <v>5.4000000000000013E-2</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I461" t="s">
         <v>96</v>
@@ -16859,7 +16803,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11">
       <c r="A462" t="s">
         <v>11</v>
       </c>
@@ -16894,7 +16838,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -16917,7 +16861,7 @@
         <v>5686</v>
       </c>
       <c r="H463">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="I463" t="s">
         <v>96</v>
@@ -16929,7 +16873,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -16952,7 +16896,7 @@
         <v>167</v>
       </c>
       <c r="H464">
-        <v>0.30399999999999999</v>
+        <v>0.304</v>
       </c>
       <c r="I464" t="s">
         <v>96</v>
@@ -16964,7 +16908,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -16999,7 +16943,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -17022,7 +16966,7 @@
         <v>141</v>
       </c>
       <c r="H466">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="I466" t="s">
         <v>96</v>
@@ -17034,7 +16978,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11">
       <c r="A467" t="s">
         <v>11</v>
       </c>
@@ -17057,7 +17001,7 @@
         <v>593</v>
       </c>
       <c r="H467">
-        <v>0.38200000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="I467" t="s">
         <v>96</v>
@@ -17069,7 +17013,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11">
       <c r="A468" t="s">
         <v>11</v>
       </c>
@@ -17092,7 +17036,7 @@
         <v>36</v>
       </c>
       <c r="H468">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="I468" t="s">
         <v>96</v>
@@ -17104,7 +17048,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11">
       <c r="A469" t="s">
         <v>11</v>
       </c>
@@ -17127,7 +17071,7 @@
         <v>253</v>
       </c>
       <c r="H469">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="I469" t="s">
         <v>96</v>
@@ -17139,7 +17083,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11">
       <c r="A470" t="s">
         <v>11</v>
       </c>
@@ -17162,7 +17106,7 @@
         <v>495</v>
       </c>
       <c r="H470">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="I470" t="s">
         <v>96</v>
@@ -17174,7 +17118,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11">
       <c r="A471" t="s">
         <v>11</v>
       </c>
@@ -17209,7 +17153,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11">
       <c r="A472" t="s">
         <v>11</v>
       </c>
@@ -17232,7 +17176,7 @@
         <v>608</v>
       </c>
       <c r="H472">
-        <v>0.64200000000000002</v>
+        <v>0.642</v>
       </c>
       <c r="I472" t="s">
         <v>96</v>
@@ -17244,7 +17188,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -17267,7 +17211,7 @@
         <v>235</v>
       </c>
       <c r="H473">
-        <v>7.9000000000000001E-2</v>
+        <v>0.079</v>
       </c>
       <c r="I473" t="s">
         <v>96</v>
@@ -17279,7 +17223,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11">
       <c r="A474" t="s">
         <v>11</v>
       </c>
@@ -17302,7 +17246,7 @@
         <v>1241</v>
       </c>
       <c r="H474">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="I474" t="s">
         <v>96</v>
@@ -17314,7 +17258,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11">
       <c r="A475" t="s">
         <v>11</v>
       </c>
@@ -17349,7 +17293,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11">
       <c r="A476" t="s">
         <v>11</v>
       </c>
@@ -17372,7 +17316,7 @@
         <v>579</v>
       </c>
       <c r="H476">
-        <v>0.19500000000000001</v>
+        <v>0.195</v>
       </c>
       <c r="I476" t="s">
         <v>96</v>
@@ -17384,7 +17328,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11">
       <c r="A477" t="s">
         <v>11</v>
       </c>
@@ -17407,7 +17351,7 @@
         <v>722</v>
       </c>
       <c r="H477">
-        <v>0.24399999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="I477" t="s">
         <v>96</v>
@@ -17419,7 +17363,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11">
       <c r="A478" t="s">
         <v>11</v>
       </c>
@@ -17442,7 +17386,7 @@
         <v>421</v>
       </c>
       <c r="H478">
-        <v>0.41899999999999998</v>
+        <v>0.419</v>
       </c>
       <c r="I478" t="s">
         <v>96</v>
@@ -17454,7 +17398,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11">
       <c r="A479" t="s">
         <v>11</v>
       </c>
@@ -17477,7 +17421,7 @@
         <v>547</v>
       </c>
       <c r="H479">
-        <v>0.54400000000000004</v>
+        <v>0.544</v>
       </c>
       <c r="I479" t="s">
         <v>96</v>
@@ -17489,7 +17433,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11">
       <c r="A480" t="s">
         <v>11</v>
       </c>
@@ -17512,7 +17456,7 @@
         <v>194</v>
       </c>
       <c r="H480">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="I480" t="s">
         <v>96</v>
@@ -17524,7 +17468,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11">
       <c r="A481" t="s">
         <v>11</v>
       </c>
@@ -17547,7 +17491,7 @@
         <v>993</v>
       </c>
       <c r="H481">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="I481" t="s">
         <v>96</v>
@@ -17559,7 +17503,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11">
       <c r="A482" t="s">
         <v>11</v>
       </c>
@@ -17582,7 +17526,7 @@
         <v>62</v>
       </c>
       <c r="H482">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="I482" t="s">
         <v>96</v>
@@ -17594,7 +17538,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11">
       <c r="A483" t="s">
         <v>11</v>
       </c>
@@ -17629,7 +17573,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11">
       <c r="A484" t="s">
         <v>11</v>
       </c>
@@ -17664,7 +17608,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11">
       <c r="A485" t="s">
         <v>11</v>
       </c>
@@ -17699,7 +17643,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11">
       <c r="A486" t="s">
         <v>11</v>
       </c>
@@ -17734,7 +17678,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -17757,7 +17701,7 @@
         <v>187</v>
       </c>
       <c r="H487">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I487" t="s">
         <v>96</v>
@@ -17769,7 +17713,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -17792,7 +17736,7 @@
         <v>1188</v>
       </c>
       <c r="H488">
-        <v>0.35199999999999998</v>
+        <v>0.352</v>
       </c>
       <c r="I488" t="s">
         <v>96</v>
@@ -17804,7 +17748,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11">
       <c r="A489" t="s">
         <v>11</v>
       </c>
@@ -17827,7 +17771,7 @@
         <v>87</v>
       </c>
       <c r="H489">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="I489" t="s">
         <v>96</v>
@@ -17839,7 +17783,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -17862,7 +17806,7 @@
         <v>662</v>
       </c>
       <c r="H490">
-        <v>0.19600000000000001</v>
+        <v>0.196</v>
       </c>
       <c r="I490" t="s">
         <v>96</v>
@@ -17874,7 +17818,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11">
       <c r="A491" t="s">
         <v>11</v>
       </c>
@@ -17897,7 +17841,7 @@
         <v>1138</v>
       </c>
       <c r="H491">
-        <v>0.33700000000000002</v>
+        <v>0.337</v>
       </c>
       <c r="I491" t="s">
         <v>96</v>
@@ -17909,7 +17853,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -17932,7 +17876,7 @@
         <v>436</v>
       </c>
       <c r="H492">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="I492" t="s">
         <v>96</v>
@@ -17944,7 +17888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -17967,7 +17911,7 @@
         <v>770</v>
       </c>
       <c r="H493">
-        <v>0.60699999999999998</v>
+        <v>0.607</v>
       </c>
       <c r="I493" t="s">
         <v>96</v>
@@ -17979,7 +17923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11">
       <c r="A494" t="s">
         <v>11</v>
       </c>
@@ -18002,7 +17946,7 @@
         <v>164</v>
       </c>
       <c r="H494">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="I494" t="s">
         <v>96</v>
@@ -18014,7 +17958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -18049,7 +17993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -18072,7 +18016,7 @@
         <v>107</v>
       </c>
       <c r="H496">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="I496" t="s">
         <v>96</v>
@@ -18084,7 +18028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -18107,7 +18051,7 @@
         <v>674</v>
       </c>
       <c r="H497">
-        <v>0.21099999999999999</v>
+        <v>0.211</v>
       </c>
       <c r="I497" t="s">
         <v>96</v>
@@ -18119,7 +18063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -18154,7 +18098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -18177,7 +18121,7 @@
         <v>8507</v>
       </c>
       <c r="H499">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="I499" t="s">
         <v>96</v>
@@ -18186,10 +18130,10 @@
         <v>5143</v>
       </c>
       <c r="K499">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -18212,7 +18156,7 @@
         <v>9110</v>
       </c>
       <c r="H500">
-        <v>0.51300000000000001</v>
+        <v>0.513</v>
       </c>
       <c r="I500" t="s">
         <v>96</v>
@@ -18221,10 +18165,10 @@
         <v>5143</v>
       </c>
       <c r="K500">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
       <c r="A501" t="s">
         <v>11</v>
       </c>
@@ -18247,7 +18191,7 @@
         <v>1541</v>
       </c>
       <c r="H501">
-        <v>5.2999999999999999E-2</v>
+        <v>0.053</v>
       </c>
       <c r="I501" t="s">
         <v>96</v>
@@ -18256,10 +18200,10 @@
         <v>5143</v>
       </c>
       <c r="K501">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
       <c r="A502" t="s">
         <v>11</v>
       </c>
@@ -18282,7 +18226,7 @@
         <v>7968</v>
       </c>
       <c r="H502">
-        <v>0.27500000000000002</v>
+        <v>0.275</v>
       </c>
       <c r="I502" t="s">
         <v>96</v>
@@ -18291,10 +18235,10 @@
         <v>5143</v>
       </c>
       <c r="K502">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -18317,7 +18261,7 @@
         <v>1291</v>
       </c>
       <c r="H503">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="I503" t="s">
         <v>96</v>
@@ -18326,10 +18270,10 @@
         <v>5143</v>
       </c>
       <c r="K503">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
       <c r="A504" t="s">
         <v>11</v>
       </c>
@@ -18352,7 +18296,7 @@
         <v>8730</v>
       </c>
       <c r="H504">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="I504" t="s">
         <v>96</v>
@@ -18361,10 +18305,10 @@
         <v>5143</v>
       </c>
       <c r="K504">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
       <c r="A505" t="s">
         <v>11</v>
       </c>
@@ -18396,10 +18340,10 @@
         <v>5143</v>
       </c>
       <c r="K505">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
       <c r="A506" t="s">
         <v>11</v>
       </c>
@@ -18422,7 +18366,7 @@
         <v>818</v>
       </c>
       <c r="H506">
-        <v>0.27900000000000003</v>
+        <v>0.279</v>
       </c>
       <c r="I506" t="s">
         <v>96</v>
@@ -18434,7 +18378,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11">
       <c r="A507" t="s">
         <v>11</v>
       </c>
@@ -18457,7 +18401,7 @@
         <v>2024</v>
       </c>
       <c r="H507">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I507" t="s">
         <v>96</v>
@@ -18469,7 +18413,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11">
       <c r="A508" t="s">
         <v>11</v>
       </c>
@@ -18492,7 +18436,7 @@
         <v>979</v>
       </c>
       <c r="H508">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="I508" t="s">
         <v>96</v>
@@ -18504,7 +18448,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11">
       <c r="A509" t="s">
         <v>11</v>
       </c>
@@ -18539,7 +18483,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -18562,7 +18506,7 @@
         <v>292</v>
       </c>
       <c r="H510">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="I510" t="s">
         <v>96</v>
@@ -18574,7 +18518,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11">
       <c r="A511" t="s">
         <v>11</v>
       </c>
@@ -18609,7 +18553,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11">
       <c r="A512" t="s">
         <v>11</v>
       </c>
@@ -18632,7 +18576,7 @@
         <v>4395</v>
       </c>
       <c r="H512">
-        <v>0.34100000000000003</v>
+        <v>0.341</v>
       </c>
       <c r="I512" t="s">
         <v>96</v>
@@ -18644,7 +18588,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -18679,7 +18623,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11">
       <c r="A514" t="s">
         <v>11</v>
       </c>
@@ -18702,7 +18646,7 @@
         <v>862</v>
       </c>
       <c r="H514">
-        <v>0.66200000000000003</v>
+        <v>0.662</v>
       </c>
       <c r="I514" t="s">
         <v>96</v>
@@ -18714,7 +18658,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11">
       <c r="A515" t="s">
         <v>11</v>
       </c>
@@ -18737,7 +18681,7 @@
         <v>20</v>
       </c>
       <c r="H515">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="I515" t="s">
         <v>96</v>
@@ -18749,7 +18693,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11">
       <c r="A516" t="s">
         <v>11</v>
       </c>
@@ -18784,7 +18728,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11">
       <c r="A517" t="s">
         <v>11</v>
       </c>
@@ -18807,7 +18751,7 @@
         <v>5</v>
       </c>
       <c r="H517">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="I517" t="s">
         <v>96</v>
@@ -18819,7 +18763,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11">
       <c r="A518" t="s">
         <v>11</v>
       </c>
@@ -18854,7 +18798,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11">
       <c r="A519" t="s">
         <v>11</v>
       </c>
@@ -18877,7 +18821,7 @@
         <v>85</v>
       </c>
       <c r="H519">
-        <v>0.28899999999999998</v>
+        <v>0.289</v>
       </c>
       <c r="I519" t="s">
         <v>96</v>
@@ -18889,7 +18833,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11">
       <c r="A520" t="s">
         <v>11</v>
       </c>
@@ -18912,7 +18856,7 @@
         <v>432</v>
       </c>
       <c r="H520">
-        <v>0.34799999999999998</v>
+        <v>0.348</v>
       </c>
       <c r="I520" t="s">
         <v>96</v>
@@ -18924,7 +18868,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11">
       <c r="A521" t="s">
         <v>11</v>
       </c>
@@ -18947,7 +18891,7 @@
         <v>723</v>
       </c>
       <c r="H521">
-        <v>0.58200000000000007</v>
+        <v>0.5820000000000001</v>
       </c>
       <c r="I521" t="s">
         <v>96</v>
@@ -18959,7 +18903,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11">
       <c r="A522" t="s">
         <v>11</v>
       </c>
@@ -18982,7 +18926,7 @@
         <v>136</v>
       </c>
       <c r="H522">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="I522" t="s">
         <v>96</v>
@@ -18994,7 +18938,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11">
       <c r="A523" t="s">
         <v>11</v>
       </c>
@@ -19029,7 +18973,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11">
       <c r="A524" t="s">
         <v>11</v>
       </c>
@@ -19052,7 +18996,7 @@
         <v>47</v>
       </c>
       <c r="H524">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="I524" t="s">
         <v>96</v>
@@ -19064,7 +19008,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11">
       <c r="A525" t="s">
         <v>11</v>
       </c>
@@ -19087,7 +19031,7 @@
         <v>496</v>
       </c>
       <c r="H525">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
       <c r="I525" t="s">
         <v>96</v>
@@ -19099,7 +19043,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11">
       <c r="A526" t="s">
         <v>11</v>
       </c>
@@ -19122,7 +19066,7 @@
         <v>784</v>
       </c>
       <c r="H526">
-        <v>0.32400000000000001</v>
+        <v>0.324</v>
       </c>
       <c r="I526" t="s">
         <v>96</v>
